--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/eurotherm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D35FE8-5D8F-F54A-AB57-1D1C066E3D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAA446B-645F-944A-A89E-0CA8F5E85E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Tamb
 °C</t>
@@ -91,15 +91,6 @@
   <si>
     <t>Q,tot
 W</t>
-  </si>
-  <si>
-    <t>calcolo</t>
-  </si>
-  <si>
-    <t>valore fisso</t>
-  </si>
-  <si>
-    <t>valore da inserire/prendere in automatico</t>
   </si>
   <si>
     <t>LEONARDO 5.5</t>
@@ -156,36 +147,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -262,32 +229,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F1A7B-4CB8-4234-8232-B01E47CE737E}">
-  <dimension ref="A2:U5"/>
+  <dimension ref="A2:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,10 +584,10 @@
     <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="2.33203125" customWidth="1"/>
     <col min="19" max="19" width="2.5" customWidth="1"/>
-    <col min="21" max="21" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="56" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -636,10 +601,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
@@ -648,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -672,131 +637,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="19">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11">
         <v>100</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="11">
         <v>140</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <f>C3/D3</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14">
         <f>_xlfn.CEILING.MATH(D3/10,1)</f>
         <v>14</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="14">
         <f>IF(H3&gt;8,_xlfn.CEILING.MATH(H3/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>300</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="15">
         <v>20</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="15">
         <v>39.5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="15">
         <v>3.5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="15">
         <v>33</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="15">
         <f>85*E3*D3</f>
         <v>8500</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="15">
         <f>85*E3*1.1*D3</f>
         <v>9350</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="16">
         <f>3.6*P3/(4.186*M3)</f>
         <v>2297.4540986963348</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" t="s">
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="C4" s="11">
         <v>100</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="11">
         <v>140</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <f>C4/D4</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14">
         <f>_xlfn.CEILING.MATH(D4/10,1)</f>
         <v>14</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="14">
         <f>IF(H4&gt;8,_xlfn.CEILING.MATH(H4/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>300</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="15">
         <v>26</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="15">
         <v>15</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="15">
         <v>2.5</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="16">
         <f>K4-(O4/D4/10.8)</f>
         <v>23.089947089947088</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="15">
         <f>44*E4*D4</f>
         <v>4400</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="15">
         <f>44*E4*1.1*D4</f>
         <v>4840.0000000000009</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="16">
         <f>3.6*P4/(4.186*M4)</f>
         <v>1664.9784997611089</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J5" s="18"/>
-      <c r="T5" s="8"/>
-      <c r="U5" t="s">
-        <v>18</v>
-      </c>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J5" s="10"/>
+      <c r="T5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B6F906-D6A1-40B6-8050-AD6C88D31099}">
-  <dimension ref="A2:U5"/>
+  <dimension ref="A2:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,7 +778,7 @@
     <col min="21" max="21" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="70" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -836,10 +792,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
@@ -848,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -872,130 +828,121 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="11">
         <v>100</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="11">
         <v>140</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <f>C3/D3</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14">
         <f>_xlfn.CEILING.MATH(D3/10,1)</f>
         <v>14</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="14">
         <f>IF(H3&gt;8,_xlfn.CEILING.MATH(H3/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>300</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="15">
         <v>20</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="15">
         <v>39.5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="15">
         <v>3.5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="15">
         <v>33</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="15">
         <f>85*E3*D3</f>
         <v>8500</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="15">
         <f>85*E3*1.1*D3</f>
         <v>9350</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="16">
         <f>3.6*P3/(4.186*M3)</f>
         <v>2297.4540986963348</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="11">
         <v>100</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="11">
         <v>140</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <f>C4/D4</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14">
         <f>_xlfn.CEILING.MATH(D4/10,1)</f>
         <v>14</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="14">
         <f>IF(H4&gt;8,_xlfn.CEILING.MATH(H4/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>300</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="15">
         <v>26</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="15">
         <v>14</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="15">
         <v>2.5</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="16">
         <f>K4-(O4/D4/10.8)</f>
         <v>21.899470899470899</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="15">
         <f>62*E4*D4</f>
         <v>6200</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="15">
         <f>62*E4*1.1*D4</f>
         <v>6820</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="16">
         <f>3.6*P4/(4.186*M4)</f>
         <v>2346.1060678451981</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T5" s="8"/>
-      <c r="U5" t="s">
-        <v>18</v>
-      </c>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,10 +951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA07C718-141C-4F3F-A6B6-64320F3A12DA}">
-  <dimension ref="A2:V5"/>
+  <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +966,7 @@
     <col min="9" max="10" width="17.6640625" customWidth="1"/>
     <col min="19" max="19" width="3.1640625" customWidth="1"/>
     <col min="20" max="20" width="3" customWidth="1"/>
-    <col min="22" max="22" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
@@ -1036,10 +983,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
@@ -1048,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -1066,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>15</v>
@@ -1076,137 +1023,145 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="19">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11">
         <v>100</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="11">
         <v>140</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <f>C3/D3</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14">
         <f>_xlfn.CEILING.MATH(D3/10,1)</f>
         <v>14</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="14">
         <f>IF(H3&gt;8,_xlfn.CEILING.MATH(H3/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>300</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="15">
         <v>20</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="15">
         <v>39.5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="15">
         <v>3.5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="15">
         <v>33</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="15">
         <f>85*E3*D3</f>
         <v>8500</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="20">
         <f>O3/D3</f>
         <v>60.714285714285715</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="15">
         <f>85*E3*1.1*D3</f>
         <v>9350</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="16">
         <f>3.6*Q3/(4.186*M3)</f>
         <v>2297.4540986963348</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" t="s">
-        <v>16</v>
-      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11">
         <v>100</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="11">
         <v>140</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <f>C4/D4</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14">
         <f>_xlfn.CEILING.MATH(D4/10,1)</f>
         <v>14</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="14">
         <f>IF(H4&gt;8,_xlfn.CEILING.MATH(H4/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>300</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="15">
         <v>26</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="15">
         <v>14</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="15">
         <v>2.5</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="16">
         <f>K4-(O4/D4/10.8)</f>
         <v>20.775132275132275</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="15">
         <f>79*E4*D4</f>
         <v>7900</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="20">
         <f>O4/D4</f>
         <v>56.428571428571431</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="15">
         <f>79*E4*1.1*D4</f>
         <v>8690</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="16">
         <f>3.6*Q4/(4.186*M4)</f>
         <v>2989.3932154801719</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="U5" s="8"/>
-      <c r="V5" t="s">
-        <v>18</v>
-      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/eurotherm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAA446B-645F-944A-A89E-0CA8F5E85E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56325BA4-A000-DC41-BF62-8ABA423D34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="1280" yWindow="4680" windowWidth="23460" windowHeight="8440" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>Tamb
 °C</t>
@@ -94,10 +94,6 @@
   </si>
   <si>
     <t>LEONARDO 5.5</t>
-  </si>
-  <si>
-    <t>Q,resa
-W/m2</t>
   </si>
   <si>
     <t>LEONARDO 3.0 PLUS</t>
@@ -208,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,7 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -570,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F1A7B-4CB8-4234-8232-B01E47CE737E}">
   <dimension ref="A2:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,10 +596,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
@@ -613,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -671,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="15">
-        <v>39.5</v>
+        <v>43</v>
       </c>
       <c r="M3" s="15">
         <v>3.5</v>
@@ -727,18 +722,17 @@
         <v>26</v>
       </c>
       <c r="L4" s="15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="15">
         <v>2.5</v>
       </c>
       <c r="N4" s="16">
         <f>K4-(O4/D4/10.8)</f>
-        <v>23.089947089947088</v>
+        <v>22.574074074074076</v>
       </c>
       <c r="O4" s="15">
-        <f>44*E4*D4</f>
-        <v>4400</v>
+        <v>5180</v>
       </c>
       <c r="P4" s="15">
         <f>44*E4*1.1*D4</f>
@@ -764,7 +758,7 @@
   <dimension ref="A2:T5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
@@ -804,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -868,19 +862,19 @@
         <v>3.5</v>
       </c>
       <c r="N3" s="15">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="O3" s="15">
-        <f>85*E3*D3</f>
-        <v>8500</v>
+        <f>84.2*E3*D3</f>
+        <v>8420</v>
       </c>
       <c r="P3" s="15">
-        <f>85*E3*1.1*D3</f>
-        <v>9350</v>
+        <f>84.2*E3*1.1*D3</f>
+        <v>9262.0000000000018</v>
       </c>
       <c r="Q3" s="16">
         <f>3.6*P3/(4.186*M3)</f>
-        <v>2297.4540986963348</v>
+        <v>2275.83100129684</v>
       </c>
       <c r="T3" s="18"/>
     </row>
@@ -921,23 +915,23 @@
         <v>14</v>
       </c>
       <c r="M4" s="15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N4" s="16">
         <f>K4-(O4/D4/10.8)</f>
-        <v>21.899470899470899</v>
+        <v>21.714285714285715</v>
       </c>
       <c r="O4" s="15">
-        <f>62*E4*D4</f>
-        <v>6200</v>
+        <f>64.8*E4*D4</f>
+        <v>6480</v>
       </c>
       <c r="P4" s="15">
-        <f>62*E4*1.1*D4</f>
-        <v>6820</v>
+        <f>64.8*E4*1.1*D4</f>
+        <v>7128.0000000000009</v>
       </c>
       <c r="Q4" s="16">
         <f>3.6*P4/(4.186*M4)</f>
-        <v>2346.1060678451981</v>
+        <v>2043.3827042522698</v>
       </c>
       <c r="T4" s="18"/>
     </row>
@@ -951,10 +945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA07C718-141C-4F3F-A6B6-64320F3A12DA}">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,12 +958,14 @@
     <col min="3" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="10" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="3.1640625" customWidth="1"/>
-    <col min="20" max="20" width="3" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="70" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -983,10 +979,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
@@ -995,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -1013,21 +1009,18 @@
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="11">
         <v>100</v>
@@ -1056,41 +1049,37 @@
         <v>20</v>
       </c>
       <c r="L3" s="15">
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="M3" s="15">
         <v>3.5</v>
       </c>
       <c r="N3" s="15">
-        <v>33</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="O3" s="15">
-        <f>85*E3*D3</f>
-        <v>8500</v>
-      </c>
-      <c r="P3" s="20">
-        <f>O3/D3</f>
-        <v>60.714285714285715</v>
-      </c>
-      <c r="Q3" s="15">
+        <f>82.3*E3*D3</f>
+        <v>8230</v>
+      </c>
+      <c r="P3" s="15">
         <f>85*E3*1.1*D3</f>
         <v>9350</v>
       </c>
-      <c r="R3" s="16">
-        <f>3.6*Q3/(4.186*M3)</f>
+      <c r="Q3" s="16">
+        <f>3.6*P3/(4.186*M3)</f>
         <v>2297.4540986963348</v>
       </c>
+      <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T3" s="18"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="11">
         <v>100</v>
@@ -1122,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="M4" s="15">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N4" s="16">
         <f>K4-(O4/D4/10.8)</f>
@@ -1132,36 +1121,31 @@
         <f>79*E4*D4</f>
         <v>7900</v>
       </c>
-      <c r="P4" s="20">
-        <f>O4/D4</f>
-        <v>56.428571428571431</v>
-      </c>
-      <c r="Q4" s="15">
-        <f>79*E4*1.1*D4</f>
-        <v>8690</v>
-      </c>
-      <c r="R4" s="16">
-        <f>3.6*Q4/(4.186*M4)</f>
-        <v>2989.3932154801719</v>
-      </c>
+      <c r="P4" s="15">
+        <f>80.9*E4*1.1*D4</f>
+        <v>8899.0000000000018</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>3.6*P4/(4.186*M4)</f>
+        <v>2186.6357245239237</v>
+      </c>
+      <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="21"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T4" s="18"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="21"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56325BA4-A000-DC41-BF62-8ABA423D34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE314B-5430-6C4C-B258-38ABD4B9479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="4680" windowWidth="23460" windowHeight="8440" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="2100" yWindow="3700" windowWidth="23460" windowHeight="8440" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F1A7B-4CB8-4234-8232-B01E47CE737E}">
   <dimension ref="A2:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,11 +674,11 @@
       <c r="N3" s="15">
         <v>33</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="16">
         <f>85*E3*D3</f>
         <v>8500</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="16">
         <f>85*E3*1.1*D3</f>
         <v>9350</v>
       </c>
@@ -731,16 +731,17 @@
         <f>K4-(O4/D4/10.8)</f>
         <v>22.574074074074076</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="16">
+        <f>51.8*D4*E4</f>
         <v>5180</v>
       </c>
-      <c r="P4" s="15">
-        <f>44*E4*1.1*D4</f>
-        <v>4840.0000000000009</v>
+      <c r="P4" s="16">
+        <f>51.8*E4*1.1*D4</f>
+        <v>5698</v>
       </c>
       <c r="Q4" s="16">
         <f>3.6*P4/(4.186*M4)</f>
-        <v>1664.9784997611089</v>
+        <v>1960.1337792642139</v>
       </c>
       <c r="T4" s="18"/>
     </row>
@@ -758,7 +759,7 @@
   <dimension ref="A2:T5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -864,11 +865,11 @@
       <c r="N3" s="15">
         <v>32.9</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="16">
         <f>84.2*E3*D3</f>
         <v>8420</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="16">
         <f>84.2*E3*1.1*D3</f>
         <v>9262.0000000000018</v>
       </c>
@@ -921,11 +922,11 @@
         <f>K4-(O4/D4/10.8)</f>
         <v>21.714285714285715</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="16">
         <f>64.8*E4*D4</f>
         <v>6480</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="16">
         <f>64.8*E4*1.1*D4</f>
         <v>7128.0000000000009</v>
       </c>
@@ -947,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA07C718-141C-4F3F-A6B6-64320F3A12DA}">
   <dimension ref="A2:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -965,7 +966,7 @@
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1057,17 +1058,17 @@
       <c r="N3" s="15">
         <v>32.700000000000003</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="16">
         <f>82.3*E3*D3</f>
         <v>8230</v>
       </c>
-      <c r="P3" s="15">
-        <f>85*E3*1.1*D3</f>
-        <v>9350</v>
+      <c r="P3" s="16">
+        <f>82.3*E3*1.1*D3</f>
+        <v>9053.0000000000018</v>
       </c>
       <c r="Q3" s="16">
         <f>3.6*P3/(4.186*M3)</f>
-        <v>2297.4540986963348</v>
+        <v>2224.4761449730399</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -1115,13 +1116,13 @@
       </c>
       <c r="N4" s="16">
         <f>K4-(O4/D4/10.8)</f>
-        <v>20.775132275132275</v>
-      </c>
-      <c r="O4" s="15">
-        <f>79*E4*D4</f>
-        <v>7900</v>
-      </c>
-      <c r="P4" s="15">
+        <v>20.649470899470899</v>
+      </c>
+      <c r="O4" s="16">
+        <f>80.9*E4*D4</f>
+        <v>8090.0000000000009</v>
+      </c>
+      <c r="P4" s="16">
         <f>80.9*E4*1.1*D4</f>
         <v>8899.0000000000018</v>
       </c>

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B851B3C-E619-F04F-8B56-371FFA4F7C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6B5D5-0F0D-8540-8D26-DB9D4B01D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
@@ -1205,6 +1205,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1216,21 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2023,7 +2023,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2040,10 +2040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="87"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -2053,13 +2053,13 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
@@ -2070,12 +2070,12 @@
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="J3" s="61"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2087,12 +2087,12 @@
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
       <c r="J4" s="61"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2103,12 +2103,12 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="40"/>
       <c r="J5" s="63"/>
       <c r="K5" s="4"/>
@@ -2120,12 +2120,12 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="4"/>
       <c r="J6" s="61"/>
       <c r="K6" s="4"/>
@@ -2136,12 +2136,12 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="41"/>
       <c r="J7" s="61"/>
       <c r="K7" s="4"/>
@@ -2153,12 +2153,12 @@
       <c r="A8" s="37"/>
       <c r="B8" s="38"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="40"/>
       <c r="J8" s="64"/>
       <c r="K8" s="65"/>
@@ -2233,17 +2233,17 @@
       <c r="P13" s="67"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86">
+      <c r="A14" s="82">
         <v>100</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="82">
         <v>140</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="80">
         <f>A14/B14</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="47"/>
       <c r="F14" s="49">
         <f>_xlfn.CEILING.MATH(B14/10,1)</f>
@@ -2334,13 +2334,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88">
+      <c r="A18" s="84">
         <v>100</v>
       </c>
-      <c r="B18" s="87">
+      <c r="B18" s="83">
         <v>140</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="81">
         <f>A18/B18</f>
         <v>0.7142857142857143</v>
       </c>
@@ -2421,10 +2421,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="87"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -2435,13 +2435,13 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="J2" s="73"/>
       <c r="K2" s="74"/>
       <c r="L2" s="74"/>
@@ -2452,12 +2452,12 @@
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="4"/>
       <c r="J3" s="76"/>
       <c r="K3" s="4"/>
@@ -2470,12 +2470,12 @@
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="4"/>
       <c r="J4" s="76"/>
       <c r="K4" s="4"/>
@@ -2487,12 +2487,12 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="40"/>
       <c r="I5" s="4"/>
       <c r="J5" s="76"/>
@@ -2505,12 +2505,12 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="76"/>
@@ -2522,12 +2522,12 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
       <c r="J7" s="76"/>
@@ -2540,12 +2540,12 @@
       <c r="A8" s="37"/>
       <c r="B8" s="38"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="40"/>
       <c r="J8" s="77"/>
       <c r="K8" s="78"/>
@@ -2811,10 +2811,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="87"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -2824,13 +2824,13 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="J2" s="73"/>
       <c r="K2" s="74"/>
       <c r="L2" s="74"/>
@@ -2841,12 +2841,12 @@
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="J3" s="76"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2861,12 +2861,12 @@
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
       <c r="J4" s="76"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2880,12 +2880,12 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="40"/>
       <c r="J5" s="76"/>
       <c r="K5" s="4"/>
@@ -2903,12 +2903,12 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="4"/>
       <c r="J6" s="76"/>
       <c r="K6" s="4"/>
@@ -2921,12 +2921,12 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="41"/>
       <c r="J7" s="76"/>
       <c r="K7" s="4"/>
@@ -2938,12 +2938,12 @@
       <c r="A8" s="37"/>
       <c r="B8" s="38"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="40"/>
       <c r="J8" s="77"/>
       <c r="K8" s="78"/>

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6B5D5-0F0D-8540-8D26-DB9D4B01D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A7BBF-B8E2-B94C-85CC-06E4710188C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
@@ -1056,15 +1056,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1101,9 +1098,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,12 +1122,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -1171,10 +1167,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -1193,7 +1189,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,12 +1201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,10 +1213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1721,7 +1711,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2009,7 +1999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2023,7 +2013,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2040,345 +2030,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="81"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="D2" s="86" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="D2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="86" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="E3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="62"/>
-      <c r="T3" s="2"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="57"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="88" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="62"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="J4" s="57"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="D5" s="85" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="D5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="40"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="62"/>
-      <c r="T5" s="3"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="36"/>
+      <c r="J5" s="59"/>
+      <c r="N5" s="58"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="D6" s="86" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="D6" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="62"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="J6" s="57"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="D7" s="85" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="D7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="62"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="37"/>
+      <c r="J7" s="57"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="86" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="D8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="40"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="36"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="68" t="s">
+      <c r="O13" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="67"/>
+      <c r="P13" s="63"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82">
+      <c r="A14" s="76">
         <v>100</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="76">
         <v>140</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="44">
         <f>A14/B14</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="49">
+      <c r="D14" s="45"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="45">
         <f>_xlfn.CEILING.MATH(B14/10,1)</f>
         <v>14</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="44">
         <f>IF(F14&gt;8,_xlfn.CEILING.MATH(F14/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="43">
         <v>300</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="45">
         <v>20</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="45">
         <v>43</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="43">
         <v>3.5</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="45">
         <v>33</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="45">
         <f>85*C14*B14</f>
         <v>8500</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="43">
         <f>85*C14*1.1*B14</f>
         <v>9350</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="45">
         <f>3.6*N14/(4.186*K14)</f>
         <v>2297.4540986963348</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="78">
         <v>100</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="77">
         <v>140</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="13">
         <f>A18/B18</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18">
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
         <f>_xlfn.CEILING.MATH(B18/10,1)</f>
         <v>14</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <f>IF(F18&gt;8,_xlfn.CEILING.MATH(F18/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>300</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="14">
         <v>26</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="15">
         <v>14</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="14">
         <v>2.5</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f>I18-(M18/B18/10.8)</f>
         <v>22.574074074074076</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="14">
         <f>51.8*B18*C18</f>
         <v>5180</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="15">
         <f>51.8*C18*1.1*B18</f>
         <v>5698</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="14">
         <f>3.6*N18/(4.186*K18)</f>
         <v>1960.1337792642139</v>
       </c>
@@ -2421,350 +2389,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="81"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="D2" s="86" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="D2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="86" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="E3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="72"/>
-      <c r="T3" s="2"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="72"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="88" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="72"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="J4" s="72"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="D5" s="85" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="D5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="72"/>
-      <c r="T5" s="3"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="36"/>
+      <c r="J5" s="72"/>
+      <c r="N5" s="68"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="D6" s="86" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="D6" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="72"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="J6" s="72"/>
+      <c r="N6" s="68"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="D7" s="85" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="D7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="72"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="37"/>
+      <c r="J7" s="72"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="86" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="D8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="40"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="36"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="41">
         <v>100</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="42">
         <v>140</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="44">
         <f>A14/B14</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50">
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46">
         <f>_xlfn.CEILING.MATH(B14/10,1)</f>
         <v>14</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="47">
         <f>IF(F14&gt;8,_xlfn.CEILING.MATH(F14/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="48">
         <v>300</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="49">
         <v>20</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="49">
         <v>39.5</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="49">
         <v>3.5</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="49">
         <v>32.9</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14" s="50">
         <f>84.2*C14*B14</f>
         <v>8420</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="50">
         <f>84.2*C14*1.1*B14</f>
         <v>9262.0000000000018</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="51">
         <f>3.6*N14/(4.186*K14)</f>
         <v>2275.83100129684</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="26">
         <v>100</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>140</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <f>A18/B18</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
         <f>_xlfn.CEILING.MATH(B18/10,1)</f>
         <v>14</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <f>IF(F18&gt;8,_xlfn.CEILING.MATH(F18/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>300</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>26</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="12">
         <v>14</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="12">
         <v>3</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="16">
         <f>I18-(M18/B18/10.8)</f>
         <v>21.714285714285715</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="17">
         <f>64.8*C18*B18</f>
         <v>6480</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="23">
         <f>64.8*C18*1.1*B18</f>
         <v>7128.0000000000009</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="18">
         <f>3.6*N18/(4.186*K18)</f>
         <v>2043.3827042522698</v>
       </c>
@@ -2790,7 +2730,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
@@ -2810,376 +2750,338 @@
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="D2" s="86" t="s">
+      <c r="B1" s="81"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="D2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="86" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="E3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="72"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="88" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="72"/>
+      <c r="N3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="72"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="D5" s="85" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="J4" s="72"/>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="D5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="40"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="D6" s="86" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="36"/>
+      <c r="J5" s="72"/>
+      <c r="N5" s="68"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="D6" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="72"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="D7" s="85" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="J6" s="72"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="D7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="72"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="86" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="37"/>
+      <c r="J7" s="72"/>
+      <c r="N7" s="68"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="D8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="40"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="36"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
         <v>100</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="42">
         <v>140</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="44">
         <f>A14/B14</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50">
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46">
         <f>_xlfn.CEILING.MATH(B14/10,1)</f>
         <v>14</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="47">
         <f>IF(F14&gt;8,_xlfn.CEILING.MATH(F14/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="48">
         <v>300</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="49">
         <v>20</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="49">
         <v>37.5</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="49">
         <v>3.5</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="49">
         <v>32.700000000000003</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14" s="50">
         <f>82.3*C14*B14</f>
         <v>8230</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="50">
         <f>82.3*C14*1.1*B14</f>
         <v>9053.0000000000018</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="51">
         <f>3.6*N14/(4.186*K14)</f>
         <v>2224.4761449730399</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="4"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="26">
         <v>100</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>140</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <f>A18/B18</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
         <f>_xlfn.CEILING.MATH(B18/10,1)</f>
         <v>14</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <f>IF(F18&gt;8,_xlfn.CEILING.MATH(F18/8),"1")</f>
         <v>2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>300</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>26</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="12">
         <v>14</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="12">
         <v>3.5</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="16">
         <f>I18-(M18/B18/10.8)</f>
         <v>20.649470899470899</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="17">
         <f>80.9*C18*B18</f>
         <v>8090.0000000000009</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="23">
         <f>80.9*C18*1.1*B18</f>
         <v>8899.0000000000018</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="18">
         <f>3.6*N18/(4.186*K18)</f>
         <v>2186.6357245239237</v>
       </c>

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A7BBF-B8E2-B94C-85CC-06E4710188C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C46F6-EF23-4147-B7D0-B6FD210E5EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="12580" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>Tamb
 °C</t>
@@ -447,6 +447,9 @@
       </rPr>
       <t>15,7 kg/mq; idro 16,4 kg/mq</t>
     </r>
+  </si>
+  <si>
+    <t>Contenuto d'acqua l</t>
   </si>
 </sst>
 </file>
@@ -956,15 +959,6 @@
         <color rgb="FFFF5050"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF5050"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FFFF5050"/>
       </top>
@@ -1048,6 +1042,21 @@
       <top/>
       <bottom style="thin">
         <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,8 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,6 +1201,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
@@ -1200,7 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,6 +1229,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1711,7 +1722,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1999,7 +2010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2012,8 +2023,8 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2023,6 +2034,7 @@
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
     <col min="9" max="14" width="9.83203125" customWidth="1"/>
     <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="2.33203125" customWidth="1"/>
     <col min="19" max="19" width="2.5" customWidth="1"/>
@@ -2030,10 +2042,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="80"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -2043,13 +2055,13 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -2059,12 +2071,12 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="J3" s="57"/>
       <c r="N3" s="58"/>
     </row>
@@ -2072,24 +2084,24 @@
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="J4" s="57"/>
       <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="36"/>
       <c r="J5" s="59"/>
       <c r="N5" s="58"/>
@@ -2098,24 +2110,24 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
       <c r="J6" s="57"/>
       <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="37"/>
       <c r="J7" s="57"/>
       <c r="N7" s="58"/>
@@ -2123,12 +2135,12 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="36"/>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
@@ -2153,7 +2165,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2195,16 +2207,18 @@
       <c r="N13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="63"/>
+      <c r="P13" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76">
+      <c r="A14" s="75">
         <v>100</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>140</v>
       </c>
       <c r="C14" s="44">
@@ -2248,14 +2262,15 @@
         <f>3.6*N14/(4.186*K14)</f>
         <v>2297.4540986963348</v>
       </c>
+      <c r="P14" s="45"/>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:16" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2300,12 +2315,15 @@
       <c r="O17" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="P17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77">
         <v>100</v>
       </c>
-      <c r="B18" s="77">
+      <c r="B18" s="76">
         <v>140</v>
       </c>
       <c r="C18" s="13">
@@ -2350,8 +2368,9 @@
         <f>3.6*N18/(4.186*K18)</f>
         <v>1960.1337792642139</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="43.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="21" spans="1:16" ht="43.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D7:G7"/>
@@ -2374,7 +2393,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2384,15 +2403,16 @@
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
     <col min="9" max="14" width="9.83203125" customWidth="1"/>
     <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
     <col min="18" max="19" width="2.33203125" customWidth="1"/>
     <col min="21" max="21" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="80"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -2402,98 +2422,98 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="J3" s="72"/>
-      <c r="N3" s="68"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="J3" s="71"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="J4" s="72"/>
-      <c r="N4" s="68"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="J4" s="71"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="36"/>
-      <c r="J5" s="72"/>
-      <c r="N5" s="68"/>
+      <c r="J5" s="71"/>
+      <c r="N5" s="67"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="J6" s="72"/>
-      <c r="N6" s="68"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="J6" s="71"/>
+      <c r="N6" s="67"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="37"/>
-      <c r="J7" s="72"/>
-      <c r="N7" s="68"/>
+      <c r="J7" s="71"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="36"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D9" s="37"/>
@@ -2557,6 +2577,9 @@
       <c r="O13" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="P13" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
@@ -2606,13 +2629,14 @@
         <f>3.6*N14/(4.186*K14)</f>
         <v>2275.83100129684</v>
       </c>
+      <c r="P14" s="45"/>
     </row>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
@@ -2658,8 +2682,11 @@
       <c r="O17" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>100</v>
       </c>
@@ -2708,6 +2735,7 @@
         <f>3.6*N18/(4.186*K18)</f>
         <v>2043.3827042522698</v>
       </c>
+      <c r="P18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2732,8 +2760,8 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2743,7 +2771,7 @@
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
     <col min="9" max="14" width="9.83203125" customWidth="1"/>
     <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
     <col min="17" max="17" width="14.1640625" customWidth="1"/>
     <col min="18" max="18" width="3.1640625" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
@@ -2751,10 +2779,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="80"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -2764,98 +2792,98 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="J3" s="72"/>
-      <c r="N3" s="68"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="J3" s="71"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="J4" s="72"/>
-      <c r="N4" s="68"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="J4" s="71"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="36"/>
-      <c r="J5" s="72"/>
-      <c r="N5" s="68"/>
+      <c r="J5" s="71"/>
+      <c r="N5" s="67"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="J6" s="72"/>
-      <c r="N6" s="68"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="J6" s="71"/>
+      <c r="N6" s="67"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="37"/>
-      <c r="J7" s="72"/>
-      <c r="N7" s="68"/>
+      <c r="J7" s="71"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="36"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D9" s="37"/>
@@ -2933,6 +2961,9 @@
       <c r="O13" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="P13" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
@@ -2982,6 +3013,7 @@
         <f>3.6*N14/(4.186*K14)</f>
         <v>2224.4761449730399</v>
       </c>
+      <c r="P14" s="45"/>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -2989,7 +3021,7 @@
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
@@ -3035,8 +3067,11 @@
       <c r="O17" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>100</v>
       </c>
@@ -3085,6 +3120,7 @@
         <f>3.6*N18/(4.186*K18)</f>
         <v>2186.6357245239237</v>
       </c>
+      <c r="P18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C46F6-EF23-4147-B7D0-B6FD210E5EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61604E-5D6D-5045-82E7-CA0CF39C64A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="12580" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24780" windowHeight="12580" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -1218,6 +1218,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1229,9 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2023,8 +2023,8 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P1:P1048576"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2042,10 +2042,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="81"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -2055,13 +2055,13 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -2071,12 +2071,12 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="J3" s="57"/>
       <c r="N3" s="58"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
       <c r="J4" s="57"/>
       <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="36"/>
       <c r="J5" s="59"/>
       <c r="N5" s="58"/>
@@ -2110,24 +2110,24 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="J6" s="57"/>
       <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="37"/>
       <c r="J7" s="57"/>
       <c r="N7" s="58"/>
@@ -2135,12 +2135,12 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="36"/>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
@@ -2210,7 +2210,7 @@
       <c r="O13" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="78" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2262,7 +2262,10 @@
         <f>3.6*N14/(4.186*K14)</f>
         <v>2297.4540986963348</v>
       </c>
-      <c r="P14" s="45"/>
+      <c r="P14" s="45">
+        <f>0.043*A14*16.67+0.41*B14</f>
+        <v>129.08099999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
@@ -2368,7 +2371,10 @@
         <f>3.6*N18/(4.186*K18)</f>
         <v>1960.1337792642139</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="14">
+        <f>0.043*A14*16.67+0.41*B14</f>
+        <v>129.08099999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="43.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2393,7 +2399,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2409,10 +2415,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="81"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -2422,13 +2428,13 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="J2" s="68"/>
       <c r="K2" s="69"/>
       <c r="L2" s="69"/>
@@ -2438,12 +2444,12 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="J3" s="71"/>
       <c r="N3" s="67"/>
     </row>
@@ -2451,24 +2457,24 @@
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
       <c r="J4" s="71"/>
       <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="36"/>
       <c r="J5" s="71"/>
       <c r="N5" s="67"/>
@@ -2477,24 +2483,24 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="J6" s="71"/>
       <c r="N6" s="67"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="37"/>
       <c r="J7" s="71"/>
       <c r="N7" s="67"/>
@@ -2502,12 +2508,12 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="36"/>
       <c r="J8" s="72"/>
       <c r="K8" s="73"/>
@@ -2577,7 +2583,7 @@
       <c r="O13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="78" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2629,7 +2635,10 @@
         <f>3.6*N14/(4.186*K14)</f>
         <v>2275.83100129684</v>
       </c>
-      <c r="P14" s="45"/>
+      <c r="P14" s="45">
+        <f>0.043*A14*23.34+0.41*B14</f>
+        <v>157.762</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
@@ -2735,7 +2744,10 @@
         <f>3.6*N18/(4.186*K18)</f>
         <v>2043.3827042522698</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="14">
+        <f>0.043*A14*23.34+0.41*B14</f>
+        <v>157.762</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2760,8 +2772,8 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2779,10 +2791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="81"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -2792,13 +2804,13 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="J2" s="68"/>
       <c r="K2" s="69"/>
       <c r="L2" s="69"/>
@@ -2808,12 +2820,12 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="J3" s="71"/>
       <c r="N3" s="67"/>
     </row>
@@ -2821,24 +2833,24 @@
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
       <c r="J4" s="71"/>
       <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="36"/>
       <c r="J5" s="71"/>
       <c r="N5" s="67"/>
@@ -2847,24 +2859,24 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="J6" s="71"/>
       <c r="N6" s="67"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="37"/>
       <c r="J7" s="71"/>
       <c r="N7" s="67"/>
@@ -2872,12 +2884,12 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="36"/>
       <c r="J8" s="72"/>
       <c r="K8" s="73"/>
@@ -2961,7 +2973,7 @@
       <c r="O13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="78" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3013,7 +3025,10 @@
         <f>3.6*N14/(4.186*K14)</f>
         <v>2224.4761449730399</v>
       </c>
-      <c r="P14" s="45"/>
+      <c r="P14" s="45">
+        <f>0.043*A14*27.5+0.41*B14</f>
+        <v>175.65</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -3120,7 +3135,10 @@
         <f>3.6*N18/(4.186*K18)</f>
         <v>2186.6357245239237</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="14">
+        <f>0.043*A14*27.5+0.41*B14</f>
+        <v>175.65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61604E-5D6D-5045-82E7-CA0CF39C64A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527B631-D441-6648-8F24-A40EC02E02DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24780" windowHeight="12580" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24780" windowHeight="12580" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -2023,8 +2023,8 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2231,7 +2231,7 @@
         <f>_xlfn.CEILING.MATH(B14/10,1)</f>
         <v>14</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="45">
         <f>IF(F14&gt;8,_xlfn.CEILING.MATH(F14/8),"1")</f>
         <v>2</v>
       </c>
@@ -2772,7 +2772,7 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:G8"/>
     </sheetView>
   </sheetViews>

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaello/python/planner/eurotherm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eng863\Desktop\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527B631-D441-6648-8F24-A40EC02E02DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D243464E-65C0-405A-829A-41AA8E953E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24780" windowHeight="12580" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="2700" yWindow="810" windowWidth="25035" windowHeight="13635" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>Tamb
 °C</t>
@@ -368,9 +368,6 @@
     </r>
   </si>
   <si>
-    <t>Portata totale inriscaldamento kg/h</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -450,6 +447,13 @@
   </si>
   <si>
     <t>Contenuto d'acqua l</t>
+  </si>
+  <si>
+    <t>Portata totale in raffrescamento
+kg/h</t>
+  </si>
+  <si>
+    <t>Portata totale in raffrescamento kg/h</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1240,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1268,8 +1272,8 @@
       <xdr:rowOff>170180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
@@ -1318,7 +1322,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>518161</xdr:colOff>
+      <xdr:colOff>594361</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -1422,8 +1426,8 @@
       <xdr:rowOff>170180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
@@ -1472,7 +1476,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>518161</xdr:colOff>
+      <xdr:colOff>594361</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -1576,8 +1580,8 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -1627,7 +1631,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>518161</xdr:colOff>
+      <xdr:colOff>594361</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -1722,9 +1726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1762,7 +1766,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1868,7 +1872,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2010,7 +2014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2023,27 +2027,27 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="14" width="9.83203125" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" customWidth="1"/>
-    <col min="19" max="19" width="2.5" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="81"/>
       <c r="D1" s="35"/>
@@ -2052,7 +2056,7 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="D2" s="80" t="s">
@@ -2068,7 +2072,7 @@
       <c r="M2" s="55"/>
       <c r="N2" s="56"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="E3" s="80" t="s">
@@ -2080,7 +2084,7 @@
       <c r="J3" s="57"/>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
@@ -2093,7 +2097,7 @@
       <c r="J4" s="57"/>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="D5" s="79" t="s">
@@ -2107,11 +2111,11 @@
       <c r="N5" s="58"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="D6" s="80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
@@ -2119,11 +2123,11 @@
       <c r="J6" s="57"/>
       <c r="N6" s="58"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="D7" s="79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="79"/>
@@ -2132,7 +2136,7 @@
       <c r="J7" s="57"/>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="D8" s="80" t="s">
@@ -2148,23 +2152,23 @@
       <c r="M8" s="61"/>
       <c r="N8" s="62"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
@@ -2211,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="P13" s="78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="75">
         <v>100</v>
       </c>
@@ -2267,12 +2271,12 @@
         <v>129.08099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
         <v>9</v>
       </c>
@@ -2316,13 +2320,13 @@
         <v>13</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77">
         <v>100</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>129.08099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="43.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:16" ht="43.7" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D7:G7"/>
@@ -2399,24 +2403,24 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="14" width="9.83203125" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="18" max="19" width="2.33203125" customWidth="1"/>
-    <col min="21" max="21" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="18" max="19" width="2.28515625" customWidth="1"/>
+    <col min="21" max="21" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="81"/>
       <c r="D1" s="35"/>
@@ -2425,7 +2429,7 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="D2" s="80" t="s">
@@ -2441,7 +2445,7 @@
       <c r="M2" s="69"/>
       <c r="N2" s="70"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="E3" s="80" t="s">
@@ -2453,7 +2457,7 @@
       <c r="J3" s="71"/>
       <c r="N3" s="67"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
@@ -2466,7 +2470,7 @@
       <c r="J4" s="71"/>
       <c r="N4" s="67"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="D5" s="79" t="s">
@@ -2480,7 +2484,7 @@
       <c r="N5" s="67"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="D6" s="80" t="s">
@@ -2492,7 +2496,7 @@
       <c r="J6" s="71"/>
       <c r="N6" s="67"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="D7" s="79" t="s">
@@ -2505,7 +2509,7 @@
       <c r="J7" s="71"/>
       <c r="N7" s="67"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="D8" s="80" t="s">
@@ -2521,23 +2525,23 @@
       <c r="M8" s="73"/>
       <c r="N8" s="74"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2581,13 +2585,13 @@
         <v>13</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="P13" s="78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>100</v>
       </c>
@@ -2640,12 +2644,12 @@
         <v>157.762</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
@@ -2689,13 +2693,13 @@
         <v>13</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>100</v>
       </c>
@@ -2772,25 +2776,25 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="14" width="9.83203125" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
@@ -2801,7 +2805,7 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="D2" s="80" t="s">
@@ -2817,7 +2821,7 @@
       <c r="M2" s="69"/>
       <c r="N2" s="70"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="E3" s="80" t="s">
@@ -2829,7 +2833,7 @@
       <c r="J3" s="71"/>
       <c r="N3" s="67"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="D4" s="35"/>
@@ -2842,7 +2846,7 @@
       <c r="J4" s="71"/>
       <c r="N4" s="67"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="D5" s="79" t="s">
@@ -2856,7 +2860,7 @@
       <c r="N5" s="67"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="D6" s="80" t="s">
@@ -2868,7 +2872,7 @@
       <c r="J6" s="71"/>
       <c r="N6" s="67"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="D7" s="79" t="s">
@@ -2881,7 +2885,7 @@
       <c r="J7" s="71"/>
       <c r="N7" s="67"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="D8" s="80" t="s">
@@ -2897,18 +2901,18 @@
       <c r="M8" s="73"/>
       <c r="N8" s="74"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:20" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2974,10 +2978,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>100</v>
       </c>
@@ -3030,13 +3034,13 @@
         <v>175.65</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
@@ -3080,13 +3084,13 @@
         <v>13</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>100</v>
       </c>

--- a/leo_template.xlsx
+++ b/leo_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egroupoffice-my.sharepoint.com/personal/daniele_secchi_eurotherm_info/Documents/Desktop/Leo planner CS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{D243464E-65C0-405A-829A-41AA8E953E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46A9C65A-E578-4040-A10B-69954FBB9A2F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{D243464E-65C0-405A-829A-41AA8E953E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A8DAB29-437B-465B-999A-E28172CC3AF7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCD0A303-1C18-40CC-8B6D-DC148C548902}"/>
   </bookViews>
   <sheets>
     <sheet name="LEONARDO 5.5" sheetId="3" r:id="rId1"/>
@@ -119,8 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -592,14 +593,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -745,8 +746,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>998220</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>175184</xdr:rowOff>
     </xdr:to>
@@ -778,7 +779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13197840" cy="1653464"/>
+          <a:ext cx="13235940" cy="1653464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,6 +789,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,9 +1095,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1104,174 +1109,57 @@
     <col min="9" max="14" width="9.88671875" customWidth="1"/>
     <col min="15" max="15" width="17.88671875" customWidth="1"/>
     <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" customWidth="1"/>
-    <col min="19" max="19" width="2.44140625" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="17" max="87" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="J5" s="53"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
@@ -1495,7 +1383,1442 @@
         <v>129.08099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="43.65" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="56"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="56"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="56"/>
+    </row>
+    <row r="33" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="56"/>
+    </row>
+    <row r="34" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="56"/>
+    </row>
+    <row r="35" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="56"/>
+    </row>
+    <row r="37" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="56"/>
+    </row>
+    <row r="38" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="56"/>
+    </row>
+    <row r="41" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="56"/>
+    </row>
+    <row r="42" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="56"/>
+    </row>
+    <row r="45" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="56"/>
+    </row>
+    <row r="46" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="56"/>
+    </row>
+    <row r="51" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="56"/>
+    </row>
+    <row r="52" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="56"/>
+    </row>
+    <row r="54" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="56"/>
+    </row>
+    <row r="55" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="56"/>
+    </row>
+    <row r="56" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="56"/>
+    </row>
+    <row r="57" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="56"/>
+    </row>
+    <row r="58" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="56"/>
+    </row>
+    <row r="59" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="56"/>
+    </row>
+    <row r="60" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="56"/>
+    </row>
+    <row r="61" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="56"/>
+    </row>
+    <row r="62" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="56"/>
+    </row>
+    <row r="64" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="56"/>
+    </row>
+    <row r="65" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="56"/>
+    </row>
+    <row r="66" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="56"/>
+    </row>
+    <row r="67" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="56"/>
+    </row>
+    <row r="68" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="56"/>
+    </row>
+    <row r="69" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="56"/>
+    </row>
+    <row r="70" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="56"/>
+    </row>
+    <row r="71" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="56"/>
+    </row>
+    <row r="72" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="56"/>
+    </row>
+    <row r="73" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="56"/>
+    </row>
+    <row r="74" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="56"/>
+    </row>
+    <row r="75" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="56"/>
+    </row>
+    <row r="76" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="56"/>
+    </row>
+    <row r="77" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="56"/>
+    </row>
+    <row r="79" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="56"/>
+    </row>
+    <row r="80" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="56"/>
+    </row>
+    <row r="81" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="56"/>
+    </row>
+    <row r="83" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="56"/>
+    </row>
+    <row r="84" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="56"/>
+    </row>
+    <row r="86" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="56"/>
+    </row>
+    <row r="87" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="56"/>
+    </row>
+    <row r="88" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="56"/>
+    </row>
+    <row r="89" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="56"/>
+    </row>
+    <row r="90" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="56"/>
+    </row>
+    <row r="91" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="56"/>
+    </row>
+    <row r="92" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="56"/>
+    </row>
+    <row r="94" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="56"/>
+    </row>
+    <row r="95" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="56"/>
+    </row>
+    <row r="96" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="56"/>
+    </row>
+    <row r="97" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="56"/>
+    </row>
+    <row r="98" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="56"/>
+    </row>
+    <row r="101" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="56"/>
+    </row>
+    <row r="102" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="56"/>
+    </row>
+    <row r="103" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="56"/>
+    </row>
+    <row r="104" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="56"/>
+    </row>
+    <row r="105" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="56"/>
+    </row>
+    <row r="106" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="56"/>
+    </row>
+    <row r="107" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="56"/>
+    </row>
+    <row r="108" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="56"/>
+    </row>
+    <row r="109" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="56"/>
+    </row>
+    <row r="110" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="56"/>
+    </row>
+    <row r="111" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="56"/>
+    </row>
+    <row r="112" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="56"/>
+    </row>
+    <row r="113" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="56"/>
+    </row>
+    <row r="114" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="56"/>
+    </row>
+    <row r="115" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="56"/>
+    </row>
+    <row r="116" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="56"/>
+    </row>
+    <row r="117" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="56"/>
+    </row>
+    <row r="118" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="56"/>
+    </row>
+    <row r="119" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="56"/>
+    </row>
+    <row r="120" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="56"/>
+    </row>
+    <row r="121" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="56"/>
+    </row>
+    <row r="122" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="56"/>
+    </row>
+    <row r="123" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="56"/>
+    </row>
+    <row r="124" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="56"/>
+    </row>
+    <row r="125" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="56"/>
+    </row>
+    <row r="126" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="56"/>
+    </row>
+    <row r="127" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="56"/>
+    </row>
+    <row r="128" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="56"/>
+    </row>
+    <row r="129" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="56"/>
+    </row>
+    <row r="130" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="56"/>
+    </row>
+    <row r="131" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="56"/>
+    </row>
+    <row r="132" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="56"/>
+    </row>
+    <row r="133" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="56"/>
+    </row>
+    <row r="134" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="56"/>
+    </row>
+    <row r="135" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="56"/>
+    </row>
+    <row r="136" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="56"/>
+    </row>
+    <row r="137" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="56"/>
+    </row>
+    <row r="138" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="56"/>
+    </row>
+    <row r="139" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="56"/>
+    </row>
+    <row r="140" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="56"/>
+    </row>
+    <row r="141" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="56"/>
+    </row>
+    <row r="142" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="56"/>
+    </row>
+    <row r="143" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="56"/>
+    </row>
+    <row r="144" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="56"/>
+    </row>
+    <row r="145" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="56"/>
+    </row>
+    <row r="146" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="56"/>
+    </row>
+    <row r="147" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="56"/>
+    </row>
+    <row r="148" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="56"/>
+    </row>
+    <row r="149" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="56"/>
+    </row>
+    <row r="150" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="56"/>
+    </row>
+    <row r="151" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="56"/>
+    </row>
+    <row r="152" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="56"/>
+    </row>
+    <row r="153" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="56"/>
+    </row>
+    <row r="154" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="56"/>
+    </row>
+    <row r="155" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="56"/>
+    </row>
+    <row r="156" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="56"/>
+    </row>
+    <row r="157" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="56"/>
+    </row>
+    <row r="158" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="56"/>
+    </row>
+    <row r="159" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="56"/>
+    </row>
+    <row r="160" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="56"/>
+    </row>
+    <row r="161" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="56"/>
+    </row>
+    <row r="162" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="56"/>
+    </row>
+    <row r="163" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="56"/>
+    </row>
+    <row r="164" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="56"/>
+    </row>
+    <row r="165" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="56"/>
+    </row>
+    <row r="166" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="56"/>
+    </row>
+    <row r="167" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="56"/>
+    </row>
+    <row r="168" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="56"/>
+    </row>
+    <row r="169" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="56"/>
+    </row>
+    <row r="170" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="56"/>
+    </row>
+    <row r="171" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="56"/>
+    </row>
+    <row r="172" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="56"/>
+    </row>
+    <row r="173" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="56"/>
+    </row>
+    <row r="174" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="56"/>
+    </row>
+    <row r="175" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="56"/>
+    </row>
+    <row r="176" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="56"/>
+    </row>
+    <row r="177" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="56"/>
+    </row>
+    <row r="178" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="56"/>
+    </row>
+    <row r="179" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F179" s="56"/>
+    </row>
+    <row r="180" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="56"/>
+    </row>
+    <row r="181" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F181" s="56"/>
+    </row>
+    <row r="182" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F182" s="56"/>
+    </row>
+    <row r="183" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="56"/>
+    </row>
+    <row r="184" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F184" s="56"/>
+    </row>
+    <row r="185" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F185" s="56"/>
+    </row>
+    <row r="186" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="56"/>
+    </row>
+    <row r="187" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F187" s="56"/>
+    </row>
+    <row r="188" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="56"/>
+    </row>
+    <row r="189" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="56"/>
+    </row>
+    <row r="190" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F190" s="56"/>
+    </row>
+    <row r="191" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F191" s="56"/>
+    </row>
+    <row r="192" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="56"/>
+    </row>
+    <row r="193" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F193" s="56"/>
+    </row>
+    <row r="194" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F194" s="56"/>
+    </row>
+    <row r="195" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F195" s="56"/>
+    </row>
+    <row r="196" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F196" s="56"/>
+    </row>
+    <row r="197" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F197" s="56"/>
+    </row>
+    <row r="198" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F198" s="56"/>
+    </row>
+    <row r="199" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F199" s="56"/>
+    </row>
+    <row r="200" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F200" s="56"/>
+    </row>
+    <row r="201" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="56"/>
+    </row>
+    <row r="202" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F202" s="56"/>
+    </row>
+    <row r="203" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F203" s="56"/>
+    </row>
+    <row r="204" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F204" s="56"/>
+    </row>
+    <row r="205" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F205" s="56"/>
+    </row>
+    <row r="206" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F206" s="56"/>
+    </row>
+    <row r="207" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="56"/>
+    </row>
+    <row r="208" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F208" s="56"/>
+    </row>
+    <row r="209" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F209" s="56"/>
+    </row>
+    <row r="210" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F210" s="56"/>
+    </row>
+    <row r="211" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F211" s="56"/>
+    </row>
+    <row r="212" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F212" s="56"/>
+    </row>
+    <row r="213" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F213" s="56"/>
+    </row>
+    <row r="214" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F214" s="56"/>
+    </row>
+    <row r="215" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F215" s="56"/>
+    </row>
+    <row r="216" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F216" s="56"/>
+    </row>
+    <row r="217" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F217" s="56"/>
+    </row>
+    <row r="218" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F218" s="56"/>
+    </row>
+    <row r="219" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F219" s="56"/>
+    </row>
+    <row r="220" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F220" s="56"/>
+    </row>
+    <row r="221" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F221" s="56"/>
+    </row>
+    <row r="222" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F222" s="56"/>
+    </row>
+    <row r="223" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F223" s="56"/>
+    </row>
+    <row r="224" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F224" s="56"/>
+    </row>
+    <row r="225" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F225" s="56"/>
+    </row>
+    <row r="226" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F226" s="56"/>
+    </row>
+    <row r="227" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F227" s="56"/>
+    </row>
+    <row r="228" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F228" s="56"/>
+    </row>
+    <row r="229" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F229" s="56"/>
+    </row>
+    <row r="230" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F230" s="56"/>
+    </row>
+    <row r="231" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F231" s="56"/>
+    </row>
+    <row r="232" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F232" s="56"/>
+    </row>
+    <row r="233" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F233" s="56"/>
+    </row>
+    <row r="234" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F234" s="56"/>
+    </row>
+    <row r="235" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F235" s="56"/>
+    </row>
+    <row r="236" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F236" s="56"/>
+    </row>
+    <row r="237" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F237" s="56"/>
+    </row>
+    <row r="238" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F238" s="56"/>
+    </row>
+    <row r="239" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F239" s="56"/>
+    </row>
+    <row r="240" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F240" s="56"/>
+    </row>
+    <row r="241" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F241" s="56"/>
+    </row>
+    <row r="242" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F242" s="56"/>
+    </row>
+    <row r="243" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F243" s="56"/>
+    </row>
+    <row r="244" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F244" s="56"/>
+    </row>
+    <row r="245" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F245" s="56"/>
+    </row>
+    <row r="246" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F246" s="56"/>
+    </row>
+    <row r="247" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F247" s="56"/>
+    </row>
+    <row r="248" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F248" s="56"/>
+    </row>
+    <row r="249" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F249" s="56"/>
+    </row>
+    <row r="250" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F250" s="56"/>
+    </row>
+    <row r="251" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F251" s="56"/>
+    </row>
+    <row r="252" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F252" s="56"/>
+    </row>
+    <row r="253" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F253" s="56"/>
+    </row>
+    <row r="254" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F254" s="56"/>
+    </row>
+    <row r="255" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F255" s="56"/>
+    </row>
+    <row r="256" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F256" s="56"/>
+    </row>
+    <row r="257" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F257" s="56"/>
+    </row>
+    <row r="258" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F258" s="56"/>
+    </row>
+    <row r="259" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F259" s="56"/>
+    </row>
+    <row r="260" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F260" s="56"/>
+    </row>
+    <row r="261" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F261" s="56"/>
+    </row>
+    <row r="262" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F262" s="56"/>
+    </row>
+    <row r="263" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F263" s="56"/>
+    </row>
+    <row r="264" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F264" s="56"/>
+    </row>
+    <row r="265" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F265" s="56"/>
+    </row>
+    <row r="266" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F266" s="56"/>
+    </row>
+    <row r="267" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F267" s="56"/>
+    </row>
+    <row r="268" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F268" s="56"/>
+    </row>
+    <row r="269" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F269" s="56"/>
+    </row>
+    <row r="270" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F270" s="56"/>
+    </row>
+    <row r="271" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F271" s="56"/>
+    </row>
+    <row r="272" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F272" s="56"/>
+    </row>
+    <row r="273" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F273" s="56"/>
+    </row>
+    <row r="274" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F274" s="56"/>
+    </row>
+    <row r="275" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F275" s="56"/>
+    </row>
+    <row r="276" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F276" s="56"/>
+    </row>
+    <row r="277" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F277" s="56"/>
+    </row>
+    <row r="278" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F278" s="56"/>
+    </row>
+    <row r="279" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F279" s="56"/>
+    </row>
+    <row r="280" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F280" s="56"/>
+    </row>
+    <row r="281" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F281" s="56"/>
+    </row>
+    <row r="282" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F282" s="56"/>
+    </row>
+    <row r="283" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F283" s="56"/>
+    </row>
+    <row r="284" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F284" s="56"/>
+    </row>
+    <row r="285" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F285" s="56"/>
+    </row>
+    <row r="286" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F286" s="56"/>
+    </row>
+    <row r="287" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F287" s="56"/>
+    </row>
+    <row r="288" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F288" s="56"/>
+    </row>
+    <row r="289" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F289" s="56"/>
+    </row>
+    <row r="290" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F290" s="56"/>
+    </row>
+    <row r="291" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F291" s="56"/>
+    </row>
+    <row r="292" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F292" s="56"/>
+    </row>
+    <row r="293" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F293" s="56"/>
+    </row>
+    <row r="294" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F294" s="56"/>
+    </row>
+    <row r="295" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F295" s="56"/>
+    </row>
+    <row r="296" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F296" s="56"/>
+    </row>
+    <row r="297" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F297" s="56"/>
+    </row>
+    <row r="298" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F298" s="56"/>
+    </row>
+    <row r="299" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F299" s="56"/>
+    </row>
+    <row r="300" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F300" s="56"/>
+    </row>
+    <row r="301" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F301" s="56"/>
+    </row>
+    <row r="302" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F302" s="56"/>
+    </row>
+    <row r="303" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F303" s="56"/>
+    </row>
+    <row r="304" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F304" s="56"/>
+    </row>
+    <row r="305" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F305" s="56"/>
+    </row>
+    <row r="306" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F306" s="56"/>
+    </row>
+    <row r="307" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F307" s="56"/>
+    </row>
+    <row r="308" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F308" s="56"/>
+    </row>
+    <row r="309" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F309" s="56"/>
+    </row>
+    <row r="310" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F310" s="56"/>
+    </row>
+    <row r="311" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F311" s="56"/>
+    </row>
+    <row r="312" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F312" s="56"/>
+    </row>
+    <row r="313" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F313" s="56"/>
+    </row>
+    <row r="314" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F314" s="56"/>
+    </row>
+    <row r="315" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F315" s="56"/>
+    </row>
+    <row r="316" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F316" s="56"/>
+    </row>
+    <row r="317" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F317" s="56"/>
+    </row>
+    <row r="318" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F318" s="56"/>
+    </row>
+    <row r="319" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F319" s="56"/>
+    </row>
+    <row r="320" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F320" s="56"/>
+    </row>
+    <row r="321" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F321" s="56"/>
+    </row>
+    <row r="322" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F322" s="56"/>
+    </row>
+    <row r="323" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F323" s="56"/>
+    </row>
+    <row r="324" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F324" s="56"/>
+    </row>
+    <row r="325" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F325" s="56"/>
+    </row>
+    <row r="326" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F326" s="56"/>
+    </row>
+    <row r="327" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F327" s="56"/>
+    </row>
+    <row r="328" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F328" s="56"/>
+    </row>
+    <row r="329" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F329" s="56"/>
+    </row>
+    <row r="330" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F330" s="56"/>
+    </row>
+    <row r="331" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F331" s="56"/>
+    </row>
+    <row r="332" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F332" s="56"/>
+    </row>
+    <row r="333" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F333" s="56"/>
+    </row>
+    <row r="334" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F334" s="56"/>
+    </row>
+    <row r="335" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F335" s="56"/>
+    </row>
+    <row r="336" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F336" s="56"/>
+    </row>
+    <row r="337" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F337" s="56"/>
+    </row>
+    <row r="338" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F338" s="56"/>
+    </row>
+    <row r="339" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F339" s="56"/>
+    </row>
+    <row r="340" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F340" s="56"/>
+    </row>
+    <row r="341" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F341" s="56"/>
+    </row>
+    <row r="342" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F342" s="56"/>
+    </row>
+    <row r="343" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F343" s="56"/>
+    </row>
+    <row r="344" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F344" s="56"/>
+    </row>
+    <row r="345" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F345" s="56"/>
+    </row>
+    <row r="346" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F346" s="56"/>
+    </row>
+    <row r="347" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F347" s="56"/>
+    </row>
+    <row r="348" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F348" s="56"/>
+    </row>
+    <row r="349" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F349" s="56"/>
+    </row>
+    <row r="350" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F350" s="56"/>
+    </row>
+    <row r="351" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F351" s="56"/>
+    </row>
+    <row r="352" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F352" s="56"/>
+    </row>
+    <row r="353" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F353" s="56"/>
+    </row>
+    <row r="354" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F354" s="56"/>
+    </row>
+    <row r="355" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F355" s="56"/>
+    </row>
+    <row r="356" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F356" s="56"/>
+    </row>
+    <row r="357" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F357" s="56"/>
+    </row>
+    <row r="358" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F358" s="56"/>
+    </row>
+    <row r="359" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F359" s="56"/>
+    </row>
+    <row r="360" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F360" s="56"/>
+    </row>
+    <row r="361" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F361" s="56"/>
+    </row>
+    <row r="362" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F362" s="56"/>
+    </row>
+    <row r="363" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F363" s="56"/>
+    </row>
+    <row r="364" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F364" s="56"/>
+    </row>
+    <row r="365" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F365" s="56"/>
+    </row>
+    <row r="366" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F366" s="56"/>
+    </row>
+    <row r="367" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F367" s="56"/>
+    </row>
+    <row r="368" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F368" s="56"/>
+    </row>
+    <row r="369" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F369" s="56"/>
+    </row>
+    <row r="370" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F370" s="56"/>
+    </row>
+    <row r="371" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F371" s="56"/>
+    </row>
+    <row r="372" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F372" s="56"/>
+    </row>
+    <row r="373" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F373" s="56"/>
+    </row>
+    <row r="374" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F374" s="56"/>
+    </row>
+    <row r="375" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F375" s="56"/>
+    </row>
+    <row r="376" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F376" s="56"/>
+    </row>
+    <row r="377" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F377" s="56"/>
+    </row>
+    <row r="378" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F378" s="56"/>
+    </row>
+    <row r="379" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F379" s="56"/>
+    </row>
+    <row r="380" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F380" s="56"/>
+    </row>
+    <row r="381" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F381" s="56"/>
+    </row>
+    <row r="382" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F382" s="56"/>
+    </row>
+    <row r="383" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F383" s="56"/>
+    </row>
+    <row r="384" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F384" s="56"/>
+    </row>
+    <row r="385" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F385" s="56"/>
+    </row>
+    <row r="386" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F386" s="56"/>
+    </row>
+    <row r="387" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F387" s="56"/>
+    </row>
+    <row r="388" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F388" s="56"/>
+    </row>
+    <row r="389" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F389" s="56"/>
+    </row>
+    <row r="390" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F390" s="56"/>
+    </row>
+    <row r="391" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F391" s="56"/>
+    </row>
+    <row r="392" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F392" s="56"/>
+    </row>
+    <row r="393" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F393" s="56"/>
+    </row>
+    <row r="394" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F394" s="56"/>
+    </row>
+    <row r="395" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F395" s="56"/>
+    </row>
+    <row r="396" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F396" s="56"/>
+    </row>
+    <row r="397" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F397" s="56"/>
+    </row>
+    <row r="398" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F398" s="56"/>
+    </row>
+    <row r="399" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F399" s="56"/>
+    </row>
+    <row r="400" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F400" s="56"/>
+    </row>
+    <row r="401" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F401" s="56"/>
+    </row>
+    <row r="402" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F402" s="56"/>
+    </row>
+    <row r="403" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F403" s="56"/>
+    </row>
+    <row r="404" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F404" s="56"/>
+    </row>
+    <row r="405" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F405" s="56"/>
+    </row>
+    <row r="406" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F406" s="56"/>
+    </row>
+    <row r="407" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F407" s="56"/>
+    </row>
+    <row r="408" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F408" s="56"/>
+    </row>
+    <row r="409" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F409" s="56"/>
+    </row>
+    <row r="410" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F410" s="56"/>
+    </row>
+    <row r="411" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F411" s="56"/>
+    </row>
+    <row r="412" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F412" s="56"/>
+    </row>
+    <row r="413" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F413" s="56"/>
+    </row>
+    <row r="414" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F414" s="56"/>
+    </row>
+    <row r="415" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F415" s="56"/>
+    </row>
+    <row r="416" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F416" s="56"/>
+    </row>
+    <row r="417" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F417" s="56"/>
+    </row>
+    <row r="418" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F418" s="56"/>
+    </row>
+    <row r="419" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F419" s="56"/>
+    </row>
+    <row r="420" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F420" s="56"/>
+    </row>
+    <row r="421" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F421" s="56"/>
+    </row>
+    <row r="422" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F422" s="56"/>
+    </row>
+    <row r="423" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F423" s="56"/>
+    </row>
+    <row r="424" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F424" s="56"/>
+    </row>
+    <row r="425" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F425" s="56"/>
+    </row>
+    <row r="426" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F426" s="56"/>
+    </row>
+    <row r="427" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F427" s="56"/>
+    </row>
+    <row r="428" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F428" s="56"/>
+    </row>
+    <row r="429" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F429" s="56"/>
+    </row>
+    <row r="430" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F430" s="56"/>
+    </row>
+    <row r="431" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F431" s="56"/>
+    </row>
+    <row r="432" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F432" s="56"/>
+    </row>
+    <row r="433" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F433" s="56"/>
+    </row>
+    <row r="434" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F434" s="56"/>
+    </row>
+    <row r="435" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F435" s="56"/>
+    </row>
+    <row r="436" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F436" s="56"/>
+    </row>
+    <row r="437" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F437" s="56"/>
+    </row>
+    <row r="438" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F438" s="56"/>
+    </row>
+    <row r="439" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F439" s="56"/>
+    </row>
+    <row r="440" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F440" s="56"/>
+    </row>
+    <row r="441" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F441" s="56"/>
+    </row>
+    <row r="442" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F442" s="56"/>
+    </row>
+    <row r="443" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F443" s="56"/>
+    </row>
+    <row r="444" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F444" s="56"/>
+    </row>
+    <row r="445" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F445" s="56"/>
+    </row>
+    <row r="446" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F446" s="56"/>
+    </row>
+    <row r="447" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F447" s="56"/>
+    </row>
+    <row r="448" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F448" s="56"/>
+    </row>
+    <row r="449" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F449" s="56"/>
+    </row>
+    <row r="450" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F450" s="56"/>
+    </row>
+    <row r="451" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F451" s="56"/>
+    </row>
+    <row r="452" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F452" s="56"/>
+    </row>
+    <row r="453" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F453" s="56"/>
+    </row>
+    <row r="454" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F454" s="56"/>
+    </row>
+    <row r="455" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F455" s="56"/>
+    </row>
+    <row r="456" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F456" s="56"/>
+    </row>
+    <row r="457" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F457" s="56"/>
+    </row>
+    <row r="458" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F458" s="56"/>
+    </row>
+    <row r="459" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F459" s="56"/>
+    </row>
+    <row r="460" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F460" s="56"/>
+    </row>
+    <row r="461" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F461" s="56"/>
+    </row>
+    <row r="462" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F462" s="56"/>
+    </row>
+    <row r="463" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F463" s="56"/>
+    </row>
+    <row r="464" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F464" s="56"/>
+    </row>
+    <row r="465" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F465" s="56"/>
+    </row>
+    <row r="466" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F466" s="56"/>
+    </row>
+    <row r="467" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F467" s="56"/>
+    </row>
+    <row r="468" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F468" s="56"/>
+    </row>
+    <row r="469" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F469" s="56"/>
+    </row>
+    <row r="470" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F470" s="56"/>
+    </row>
+    <row r="471" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F471" s="56"/>
+    </row>
+    <row r="472" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F472" s="56"/>
+    </row>
+    <row r="473" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F473" s="56"/>
+    </row>
+    <row r="474" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F474" s="56"/>
+    </row>
+    <row r="475" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F475" s="56"/>
+    </row>
+    <row r="476" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F476" s="56"/>
+    </row>
+    <row r="477" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F477" s="56"/>
+    </row>
+    <row r="478" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F478" s="56"/>
+    </row>
+    <row r="479" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F479" s="56"/>
+    </row>
+    <row r="480" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F480" s="56"/>
+    </row>
+    <row r="481" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F481" s="56"/>
+    </row>
+    <row r="482" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F482" s="56"/>
+    </row>
+    <row r="483" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F483" s="56"/>
+    </row>
+    <row r="484" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F484" s="56"/>
+    </row>
+    <row r="485" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F485" s="56"/>
+    </row>
+    <row r="486" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F486" s="56"/>
+    </row>
+    <row r="487" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F487" s="56"/>
+    </row>
+    <row r="488" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F488" s="56"/>
+    </row>
+    <row r="489" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F489" s="56"/>
+    </row>
+    <row r="490" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F490" s="56"/>
+    </row>
+    <row r="491" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F491" s="56"/>
+    </row>
+    <row r="492" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F492" s="56"/>
+    </row>
+    <row r="493" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F493" s="56"/>
+    </row>
+    <row r="494" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F494" s="56"/>
+    </row>
+    <row r="495" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F495" s="56"/>
+    </row>
+    <row r="496" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F496" s="56"/>
+    </row>
+    <row r="497" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F497" s="56"/>
+    </row>
+    <row r="498" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F498" s="56"/>
+    </row>
+    <row r="499" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F499" s="56"/>
+    </row>
+    <row r="500" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F500" s="56"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1505,7 +2828,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B6F906-D6A1-40B6-8050-AD6C88D31099}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -1519,172 +2842,56 @@
     <col min="9" max="14" width="9.88671875" customWidth="1"/>
     <col min="15" max="15" width="17.88671875" customWidth="1"/>
     <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="18" max="19" width="2.33203125" customWidth="1"/>
-    <col min="21" max="21" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="67" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
@@ -1907,6 +3114,1442 @@
         <f>0.043*A14*23.34+0.41*B14</f>
         <v>157.762</v>
       </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="56"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="56"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="56"/>
+    </row>
+    <row r="33" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="56"/>
+    </row>
+    <row r="34" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="56"/>
+    </row>
+    <row r="35" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="56"/>
+    </row>
+    <row r="37" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="56"/>
+    </row>
+    <row r="38" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="56"/>
+    </row>
+    <row r="41" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="56"/>
+    </row>
+    <row r="42" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="56"/>
+    </row>
+    <row r="45" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="56"/>
+    </row>
+    <row r="46" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="56"/>
+    </row>
+    <row r="51" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="56"/>
+    </row>
+    <row r="52" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="56"/>
+    </row>
+    <row r="54" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="56"/>
+    </row>
+    <row r="55" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="56"/>
+    </row>
+    <row r="56" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="56"/>
+    </row>
+    <row r="57" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="56"/>
+    </row>
+    <row r="58" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="56"/>
+    </row>
+    <row r="59" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="56"/>
+    </row>
+    <row r="60" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="56"/>
+    </row>
+    <row r="61" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="56"/>
+    </row>
+    <row r="62" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="56"/>
+    </row>
+    <row r="64" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="56"/>
+    </row>
+    <row r="65" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="56"/>
+    </row>
+    <row r="66" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="56"/>
+    </row>
+    <row r="67" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="56"/>
+    </row>
+    <row r="68" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="56"/>
+    </row>
+    <row r="69" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="56"/>
+    </row>
+    <row r="70" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="56"/>
+    </row>
+    <row r="71" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="56"/>
+    </row>
+    <row r="72" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="56"/>
+    </row>
+    <row r="73" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="56"/>
+    </row>
+    <row r="74" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="56"/>
+    </row>
+    <row r="75" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="56"/>
+    </row>
+    <row r="76" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="56"/>
+    </row>
+    <row r="77" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="56"/>
+    </row>
+    <row r="79" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="56"/>
+    </row>
+    <row r="80" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="56"/>
+    </row>
+    <row r="81" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="56"/>
+    </row>
+    <row r="83" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="56"/>
+    </row>
+    <row r="84" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="56"/>
+    </row>
+    <row r="86" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="56"/>
+    </row>
+    <row r="87" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="56"/>
+    </row>
+    <row r="88" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="56"/>
+    </row>
+    <row r="89" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="56"/>
+    </row>
+    <row r="90" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="56"/>
+    </row>
+    <row r="91" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="56"/>
+    </row>
+    <row r="92" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="56"/>
+    </row>
+    <row r="94" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="56"/>
+    </row>
+    <row r="95" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="56"/>
+    </row>
+    <row r="96" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="56"/>
+    </row>
+    <row r="97" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="56"/>
+    </row>
+    <row r="98" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="56"/>
+    </row>
+    <row r="101" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="56"/>
+    </row>
+    <row r="102" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="56"/>
+    </row>
+    <row r="103" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="56"/>
+    </row>
+    <row r="104" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="56"/>
+    </row>
+    <row r="105" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="56"/>
+    </row>
+    <row r="106" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="56"/>
+    </row>
+    <row r="107" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="56"/>
+    </row>
+    <row r="108" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="56"/>
+    </row>
+    <row r="109" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="56"/>
+    </row>
+    <row r="110" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="56"/>
+    </row>
+    <row r="111" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="56"/>
+    </row>
+    <row r="112" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="56"/>
+    </row>
+    <row r="113" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="56"/>
+    </row>
+    <row r="114" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="56"/>
+    </row>
+    <row r="115" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="56"/>
+    </row>
+    <row r="116" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="56"/>
+    </row>
+    <row r="117" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="56"/>
+    </row>
+    <row r="118" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="56"/>
+    </row>
+    <row r="119" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="56"/>
+    </row>
+    <row r="120" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="56"/>
+    </row>
+    <row r="121" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="56"/>
+    </row>
+    <row r="122" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="56"/>
+    </row>
+    <row r="123" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="56"/>
+    </row>
+    <row r="124" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="56"/>
+    </row>
+    <row r="125" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="56"/>
+    </row>
+    <row r="126" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="56"/>
+    </row>
+    <row r="127" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="56"/>
+    </row>
+    <row r="128" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="56"/>
+    </row>
+    <row r="129" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="56"/>
+    </row>
+    <row r="130" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="56"/>
+    </row>
+    <row r="131" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="56"/>
+    </row>
+    <row r="132" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="56"/>
+    </row>
+    <row r="133" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="56"/>
+    </row>
+    <row r="134" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="56"/>
+    </row>
+    <row r="135" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="56"/>
+    </row>
+    <row r="136" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="56"/>
+    </row>
+    <row r="137" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="56"/>
+    </row>
+    <row r="138" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="56"/>
+    </row>
+    <row r="139" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="56"/>
+    </row>
+    <row r="140" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="56"/>
+    </row>
+    <row r="141" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="56"/>
+    </row>
+    <row r="142" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="56"/>
+    </row>
+    <row r="143" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="56"/>
+    </row>
+    <row r="144" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="56"/>
+    </row>
+    <row r="145" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="56"/>
+    </row>
+    <row r="146" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="56"/>
+    </row>
+    <row r="147" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="56"/>
+    </row>
+    <row r="148" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="56"/>
+    </row>
+    <row r="149" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="56"/>
+    </row>
+    <row r="150" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="56"/>
+    </row>
+    <row r="151" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="56"/>
+    </row>
+    <row r="152" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="56"/>
+    </row>
+    <row r="153" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="56"/>
+    </row>
+    <row r="154" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="56"/>
+    </row>
+    <row r="155" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="56"/>
+    </row>
+    <row r="156" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="56"/>
+    </row>
+    <row r="157" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="56"/>
+    </row>
+    <row r="158" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="56"/>
+    </row>
+    <row r="159" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="56"/>
+    </row>
+    <row r="160" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="56"/>
+    </row>
+    <row r="161" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="56"/>
+    </row>
+    <row r="162" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="56"/>
+    </row>
+    <row r="163" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="56"/>
+    </row>
+    <row r="164" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="56"/>
+    </row>
+    <row r="165" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="56"/>
+    </row>
+    <row r="166" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="56"/>
+    </row>
+    <row r="167" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="56"/>
+    </row>
+    <row r="168" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="56"/>
+    </row>
+    <row r="169" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="56"/>
+    </row>
+    <row r="170" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="56"/>
+    </row>
+    <row r="171" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="56"/>
+    </row>
+    <row r="172" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="56"/>
+    </row>
+    <row r="173" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="56"/>
+    </row>
+    <row r="174" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="56"/>
+    </row>
+    <row r="175" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="56"/>
+    </row>
+    <row r="176" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="56"/>
+    </row>
+    <row r="177" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="56"/>
+    </row>
+    <row r="178" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="56"/>
+    </row>
+    <row r="179" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F179" s="56"/>
+    </row>
+    <row r="180" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="56"/>
+    </row>
+    <row r="181" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F181" s="56"/>
+    </row>
+    <row r="182" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F182" s="56"/>
+    </row>
+    <row r="183" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="56"/>
+    </row>
+    <row r="184" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F184" s="56"/>
+    </row>
+    <row r="185" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F185" s="56"/>
+    </row>
+    <row r="186" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="56"/>
+    </row>
+    <row r="187" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F187" s="56"/>
+    </row>
+    <row r="188" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="56"/>
+    </row>
+    <row r="189" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="56"/>
+    </row>
+    <row r="190" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F190" s="56"/>
+    </row>
+    <row r="191" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F191" s="56"/>
+    </row>
+    <row r="192" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="56"/>
+    </row>
+    <row r="193" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F193" s="56"/>
+    </row>
+    <row r="194" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F194" s="56"/>
+    </row>
+    <row r="195" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F195" s="56"/>
+    </row>
+    <row r="196" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F196" s="56"/>
+    </row>
+    <row r="197" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F197" s="56"/>
+    </row>
+    <row r="198" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F198" s="56"/>
+    </row>
+    <row r="199" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F199" s="56"/>
+    </row>
+    <row r="200" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F200" s="56"/>
+    </row>
+    <row r="201" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="56"/>
+    </row>
+    <row r="202" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F202" s="56"/>
+    </row>
+    <row r="203" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F203" s="56"/>
+    </row>
+    <row r="204" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F204" s="56"/>
+    </row>
+    <row r="205" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F205" s="56"/>
+    </row>
+    <row r="206" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F206" s="56"/>
+    </row>
+    <row r="207" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="56"/>
+    </row>
+    <row r="208" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F208" s="56"/>
+    </row>
+    <row r="209" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F209" s="56"/>
+    </row>
+    <row r="210" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F210" s="56"/>
+    </row>
+    <row r="211" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F211" s="56"/>
+    </row>
+    <row r="212" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F212" s="56"/>
+    </row>
+    <row r="213" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F213" s="56"/>
+    </row>
+    <row r="214" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F214" s="56"/>
+    </row>
+    <row r="215" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F215" s="56"/>
+    </row>
+    <row r="216" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F216" s="56"/>
+    </row>
+    <row r="217" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F217" s="56"/>
+    </row>
+    <row r="218" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F218" s="56"/>
+    </row>
+    <row r="219" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F219" s="56"/>
+    </row>
+    <row r="220" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F220" s="56"/>
+    </row>
+    <row r="221" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F221" s="56"/>
+    </row>
+    <row r="222" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F222" s="56"/>
+    </row>
+    <row r="223" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F223" s="56"/>
+    </row>
+    <row r="224" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F224" s="56"/>
+    </row>
+    <row r="225" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F225" s="56"/>
+    </row>
+    <row r="226" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F226" s="56"/>
+    </row>
+    <row r="227" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F227" s="56"/>
+    </row>
+    <row r="228" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F228" s="56"/>
+    </row>
+    <row r="229" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F229" s="56"/>
+    </row>
+    <row r="230" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F230" s="56"/>
+    </row>
+    <row r="231" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F231" s="56"/>
+    </row>
+    <row r="232" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F232" s="56"/>
+    </row>
+    <row r="233" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F233" s="56"/>
+    </row>
+    <row r="234" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F234" s="56"/>
+    </row>
+    <row r="235" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F235" s="56"/>
+    </row>
+    <row r="236" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F236" s="56"/>
+    </row>
+    <row r="237" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F237" s="56"/>
+    </row>
+    <row r="238" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F238" s="56"/>
+    </row>
+    <row r="239" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F239" s="56"/>
+    </row>
+    <row r="240" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F240" s="56"/>
+    </row>
+    <row r="241" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F241" s="56"/>
+    </row>
+    <row r="242" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F242" s="56"/>
+    </row>
+    <row r="243" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F243" s="56"/>
+    </row>
+    <row r="244" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F244" s="56"/>
+    </row>
+    <row r="245" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F245" s="56"/>
+    </row>
+    <row r="246" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F246" s="56"/>
+    </row>
+    <row r="247" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F247" s="56"/>
+    </row>
+    <row r="248" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F248" s="56"/>
+    </row>
+    <row r="249" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F249" s="56"/>
+    </row>
+    <row r="250" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F250" s="56"/>
+    </row>
+    <row r="251" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F251" s="56"/>
+    </row>
+    <row r="252" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F252" s="56"/>
+    </row>
+    <row r="253" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F253" s="56"/>
+    </row>
+    <row r="254" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F254" s="56"/>
+    </row>
+    <row r="255" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F255" s="56"/>
+    </row>
+    <row r="256" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F256" s="56"/>
+    </row>
+    <row r="257" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F257" s="56"/>
+    </row>
+    <row r="258" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F258" s="56"/>
+    </row>
+    <row r="259" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F259" s="56"/>
+    </row>
+    <row r="260" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F260" s="56"/>
+    </row>
+    <row r="261" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F261" s="56"/>
+    </row>
+    <row r="262" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F262" s="56"/>
+    </row>
+    <row r="263" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F263" s="56"/>
+    </row>
+    <row r="264" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F264" s="56"/>
+    </row>
+    <row r="265" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F265" s="56"/>
+    </row>
+    <row r="266" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F266" s="56"/>
+    </row>
+    <row r="267" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F267" s="56"/>
+    </row>
+    <row r="268" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F268" s="56"/>
+    </row>
+    <row r="269" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F269" s="56"/>
+    </row>
+    <row r="270" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F270" s="56"/>
+    </row>
+    <row r="271" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F271" s="56"/>
+    </row>
+    <row r="272" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F272" s="56"/>
+    </row>
+    <row r="273" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F273" s="56"/>
+    </row>
+    <row r="274" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F274" s="56"/>
+    </row>
+    <row r="275" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F275" s="56"/>
+    </row>
+    <row r="276" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F276" s="56"/>
+    </row>
+    <row r="277" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F277" s="56"/>
+    </row>
+    <row r="278" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F278" s="56"/>
+    </row>
+    <row r="279" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F279" s="56"/>
+    </row>
+    <row r="280" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F280" s="56"/>
+    </row>
+    <row r="281" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F281" s="56"/>
+    </row>
+    <row r="282" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F282" s="56"/>
+    </row>
+    <row r="283" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F283" s="56"/>
+    </row>
+    <row r="284" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F284" s="56"/>
+    </row>
+    <row r="285" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F285" s="56"/>
+    </row>
+    <row r="286" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F286" s="56"/>
+    </row>
+    <row r="287" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F287" s="56"/>
+    </row>
+    <row r="288" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F288" s="56"/>
+    </row>
+    <row r="289" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F289" s="56"/>
+    </row>
+    <row r="290" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F290" s="56"/>
+    </row>
+    <row r="291" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F291" s="56"/>
+    </row>
+    <row r="292" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F292" s="56"/>
+    </row>
+    <row r="293" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F293" s="56"/>
+    </row>
+    <row r="294" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F294" s="56"/>
+    </row>
+    <row r="295" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F295" s="56"/>
+    </row>
+    <row r="296" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F296" s="56"/>
+    </row>
+    <row r="297" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F297" s="56"/>
+    </row>
+    <row r="298" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F298" s="56"/>
+    </row>
+    <row r="299" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F299" s="56"/>
+    </row>
+    <row r="300" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F300" s="56"/>
+    </row>
+    <row r="301" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F301" s="56"/>
+    </row>
+    <row r="302" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F302" s="56"/>
+    </row>
+    <row r="303" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F303" s="56"/>
+    </row>
+    <row r="304" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F304" s="56"/>
+    </row>
+    <row r="305" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F305" s="56"/>
+    </row>
+    <row r="306" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F306" s="56"/>
+    </row>
+    <row r="307" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F307" s="56"/>
+    </row>
+    <row r="308" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F308" s="56"/>
+    </row>
+    <row r="309" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F309" s="56"/>
+    </row>
+    <row r="310" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F310" s="56"/>
+    </row>
+    <row r="311" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F311" s="56"/>
+    </row>
+    <row r="312" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F312" s="56"/>
+    </row>
+    <row r="313" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F313" s="56"/>
+    </row>
+    <row r="314" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F314" s="56"/>
+    </row>
+    <row r="315" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F315" s="56"/>
+    </row>
+    <row r="316" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F316" s="56"/>
+    </row>
+    <row r="317" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F317" s="56"/>
+    </row>
+    <row r="318" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F318" s="56"/>
+    </row>
+    <row r="319" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F319" s="56"/>
+    </row>
+    <row r="320" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F320" s="56"/>
+    </row>
+    <row r="321" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F321" s="56"/>
+    </row>
+    <row r="322" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F322" s="56"/>
+    </row>
+    <row r="323" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F323" s="56"/>
+    </row>
+    <row r="324" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F324" s="56"/>
+    </row>
+    <row r="325" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F325" s="56"/>
+    </row>
+    <row r="326" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F326" s="56"/>
+    </row>
+    <row r="327" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F327" s="56"/>
+    </row>
+    <row r="328" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F328" s="56"/>
+    </row>
+    <row r="329" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F329" s="56"/>
+    </row>
+    <row r="330" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F330" s="56"/>
+    </row>
+    <row r="331" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F331" s="56"/>
+    </row>
+    <row r="332" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F332" s="56"/>
+    </row>
+    <row r="333" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F333" s="56"/>
+    </row>
+    <row r="334" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F334" s="56"/>
+    </row>
+    <row r="335" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F335" s="56"/>
+    </row>
+    <row r="336" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F336" s="56"/>
+    </row>
+    <row r="337" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F337" s="56"/>
+    </row>
+    <row r="338" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F338" s="56"/>
+    </row>
+    <row r="339" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F339" s="56"/>
+    </row>
+    <row r="340" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F340" s="56"/>
+    </row>
+    <row r="341" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F341" s="56"/>
+    </row>
+    <row r="342" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F342" s="56"/>
+    </row>
+    <row r="343" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F343" s="56"/>
+    </row>
+    <row r="344" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F344" s="56"/>
+    </row>
+    <row r="345" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F345" s="56"/>
+    </row>
+    <row r="346" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F346" s="56"/>
+    </row>
+    <row r="347" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F347" s="56"/>
+    </row>
+    <row r="348" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F348" s="56"/>
+    </row>
+    <row r="349" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F349" s="56"/>
+    </row>
+    <row r="350" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F350" s="56"/>
+    </row>
+    <row r="351" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F351" s="56"/>
+    </row>
+    <row r="352" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F352" s="56"/>
+    </row>
+    <row r="353" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F353" s="56"/>
+    </row>
+    <row r="354" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F354" s="56"/>
+    </row>
+    <row r="355" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F355" s="56"/>
+    </row>
+    <row r="356" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F356" s="56"/>
+    </row>
+    <row r="357" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F357" s="56"/>
+    </row>
+    <row r="358" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F358" s="56"/>
+    </row>
+    <row r="359" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F359" s="56"/>
+    </row>
+    <row r="360" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F360" s="56"/>
+    </row>
+    <row r="361" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F361" s="56"/>
+    </row>
+    <row r="362" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F362" s="56"/>
+    </row>
+    <row r="363" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F363" s="56"/>
+    </row>
+    <row r="364" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F364" s="56"/>
+    </row>
+    <row r="365" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F365" s="56"/>
+    </row>
+    <row r="366" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F366" s="56"/>
+    </row>
+    <row r="367" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F367" s="56"/>
+    </row>
+    <row r="368" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F368" s="56"/>
+    </row>
+    <row r="369" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F369" s="56"/>
+    </row>
+    <row r="370" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F370" s="56"/>
+    </row>
+    <row r="371" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F371" s="56"/>
+    </row>
+    <row r="372" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F372" s="56"/>
+    </row>
+    <row r="373" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F373" s="56"/>
+    </row>
+    <row r="374" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F374" s="56"/>
+    </row>
+    <row r="375" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F375" s="56"/>
+    </row>
+    <row r="376" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F376" s="56"/>
+    </row>
+    <row r="377" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F377" s="56"/>
+    </row>
+    <row r="378" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F378" s="56"/>
+    </row>
+    <row r="379" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F379" s="56"/>
+    </row>
+    <row r="380" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F380" s="56"/>
+    </row>
+    <row r="381" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F381" s="56"/>
+    </row>
+    <row r="382" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F382" s="56"/>
+    </row>
+    <row r="383" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F383" s="56"/>
+    </row>
+    <row r="384" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F384" s="56"/>
+    </row>
+    <row r="385" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F385" s="56"/>
+    </row>
+    <row r="386" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F386" s="56"/>
+    </row>
+    <row r="387" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F387" s="56"/>
+    </row>
+    <row r="388" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F388" s="56"/>
+    </row>
+    <row r="389" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F389" s="56"/>
+    </row>
+    <row r="390" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F390" s="56"/>
+    </row>
+    <row r="391" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F391" s="56"/>
+    </row>
+    <row r="392" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F392" s="56"/>
+    </row>
+    <row r="393" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F393" s="56"/>
+    </row>
+    <row r="394" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F394" s="56"/>
+    </row>
+    <row r="395" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F395" s="56"/>
+    </row>
+    <row r="396" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F396" s="56"/>
+    </row>
+    <row r="397" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F397" s="56"/>
+    </row>
+    <row r="398" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F398" s="56"/>
+    </row>
+    <row r="399" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F399" s="56"/>
+    </row>
+    <row r="400" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F400" s="56"/>
+    </row>
+    <row r="401" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F401" s="56"/>
+    </row>
+    <row r="402" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F402" s="56"/>
+    </row>
+    <row r="403" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F403" s="56"/>
+    </row>
+    <row r="404" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F404" s="56"/>
+    </row>
+    <row r="405" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F405" s="56"/>
+    </row>
+    <row r="406" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F406" s="56"/>
+    </row>
+    <row r="407" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F407" s="56"/>
+    </row>
+    <row r="408" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F408" s="56"/>
+    </row>
+    <row r="409" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F409" s="56"/>
+    </row>
+    <row r="410" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F410" s="56"/>
+    </row>
+    <row r="411" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F411" s="56"/>
+    </row>
+    <row r="412" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F412" s="56"/>
+    </row>
+    <row r="413" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F413" s="56"/>
+    </row>
+    <row r="414" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F414" s="56"/>
+    </row>
+    <row r="415" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F415" s="56"/>
+    </row>
+    <row r="416" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F416" s="56"/>
+    </row>
+    <row r="417" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F417" s="56"/>
+    </row>
+    <row r="418" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F418" s="56"/>
+    </row>
+    <row r="419" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F419" s="56"/>
+    </row>
+    <row r="420" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F420" s="56"/>
+    </row>
+    <row r="421" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F421" s="56"/>
+    </row>
+    <row r="422" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F422" s="56"/>
+    </row>
+    <row r="423" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F423" s="56"/>
+    </row>
+    <row r="424" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F424" s="56"/>
+    </row>
+    <row r="425" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F425" s="56"/>
+    </row>
+    <row r="426" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F426" s="56"/>
+    </row>
+    <row r="427" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F427" s="56"/>
+    </row>
+    <row r="428" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F428" s="56"/>
+    </row>
+    <row r="429" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F429" s="56"/>
+    </row>
+    <row r="430" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F430" s="56"/>
+    </row>
+    <row r="431" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F431" s="56"/>
+    </row>
+    <row r="432" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F432" s="56"/>
+    </row>
+    <row r="433" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F433" s="56"/>
+    </row>
+    <row r="434" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F434" s="56"/>
+    </row>
+    <row r="435" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F435" s="56"/>
+    </row>
+    <row r="436" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F436" s="56"/>
+    </row>
+    <row r="437" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F437" s="56"/>
+    </row>
+    <row r="438" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F438" s="56"/>
+    </row>
+    <row r="439" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F439" s="56"/>
+    </row>
+    <row r="440" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F440" s="56"/>
+    </row>
+    <row r="441" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F441" s="56"/>
+    </row>
+    <row r="442" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F442" s="56"/>
+    </row>
+    <row r="443" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F443" s="56"/>
+    </row>
+    <row r="444" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F444" s="56"/>
+    </row>
+    <row r="445" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F445" s="56"/>
+    </row>
+    <row r="446" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F446" s="56"/>
+    </row>
+    <row r="447" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F447" s="56"/>
+    </row>
+    <row r="448" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F448" s="56"/>
+    </row>
+    <row r="449" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F449" s="56"/>
+    </row>
+    <row r="450" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F450" s="56"/>
+    </row>
+    <row r="451" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F451" s="56"/>
+    </row>
+    <row r="452" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F452" s="56"/>
+    </row>
+    <row r="453" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F453" s="56"/>
+    </row>
+    <row r="454" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F454" s="56"/>
+    </row>
+    <row r="455" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F455" s="56"/>
+    </row>
+    <row r="456" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F456" s="56"/>
+    </row>
+    <row r="457" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F457" s="56"/>
+    </row>
+    <row r="458" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F458" s="56"/>
+    </row>
+    <row r="459" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F459" s="56"/>
+    </row>
+    <row r="460" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F460" s="56"/>
+    </row>
+    <row r="461" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F461" s="56"/>
+    </row>
+    <row r="462" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F462" s="56"/>
+    </row>
+    <row r="463" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F463" s="56"/>
+    </row>
+    <row r="464" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F464" s="56"/>
+    </row>
+    <row r="465" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F465" s="56"/>
+    </row>
+    <row r="466" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F466" s="56"/>
+    </row>
+    <row r="467" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F467" s="56"/>
+    </row>
+    <row r="468" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F468" s="56"/>
+    </row>
+    <row r="469" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F469" s="56"/>
+    </row>
+    <row r="470" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F470" s="56"/>
+    </row>
+    <row r="471" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F471" s="56"/>
+    </row>
+    <row r="472" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F472" s="56"/>
+    </row>
+    <row r="473" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F473" s="56"/>
+    </row>
+    <row r="474" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F474" s="56"/>
+    </row>
+    <row r="475" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F475" s="56"/>
+    </row>
+    <row r="476" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F476" s="56"/>
+    </row>
+    <row r="477" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F477" s="56"/>
+    </row>
+    <row r="478" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F478" s="56"/>
+    </row>
+    <row r="479" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F479" s="56"/>
+    </row>
+    <row r="480" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F480" s="56"/>
+    </row>
+    <row r="481" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F481" s="56"/>
+    </row>
+    <row r="482" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F482" s="56"/>
+    </row>
+    <row r="483" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F483" s="56"/>
+    </row>
+    <row r="484" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F484" s="56"/>
+    </row>
+    <row r="485" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F485" s="56"/>
+    </row>
+    <row r="486" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F486" s="56"/>
+    </row>
+    <row r="487" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F487" s="56"/>
+    </row>
+    <row r="488" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F488" s="56"/>
+    </row>
+    <row r="489" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F489" s="56"/>
+    </row>
+    <row r="490" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F490" s="56"/>
+    </row>
+    <row r="491" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F491" s="56"/>
+    </row>
+    <row r="492" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F492" s="56"/>
+    </row>
+    <row r="493" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F493" s="56"/>
+    </row>
+    <row r="494" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F494" s="56"/>
+    </row>
+    <row r="495" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F495" s="56"/>
+    </row>
+    <row r="496" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F496" s="56"/>
+    </row>
+    <row r="497" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F497" s="56"/>
+    </row>
+    <row r="498" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F498" s="56"/>
+    </row>
+    <row r="499" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F499" s="56"/>
+    </row>
+    <row r="500" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F500" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,9 +4562,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1933,174 +4576,56 @@
     <col min="9" max="14" width="9.88671875" customWidth="1"/>
     <col min="15" max="15" width="17.88671875" customWidth="1"/>
     <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="18" max="18" width="3.109375" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="17" max="101" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
@@ -2339,6 +4864,1442 @@
         <v>175.65</v>
       </c>
     </row>
+    <row r="19" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="56"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="56"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="56"/>
+    </row>
+    <row r="33" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="56"/>
+    </row>
+    <row r="34" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="56"/>
+    </row>
+    <row r="35" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="56"/>
+    </row>
+    <row r="37" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="56"/>
+    </row>
+    <row r="38" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="56"/>
+    </row>
+    <row r="41" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="56"/>
+    </row>
+    <row r="42" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="56"/>
+    </row>
+    <row r="45" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="56"/>
+    </row>
+    <row r="46" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="56"/>
+    </row>
+    <row r="51" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="56"/>
+    </row>
+    <row r="52" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="56"/>
+    </row>
+    <row r="54" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="56"/>
+    </row>
+    <row r="55" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="56"/>
+    </row>
+    <row r="56" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="56"/>
+    </row>
+    <row r="57" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="56"/>
+    </row>
+    <row r="58" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="56"/>
+    </row>
+    <row r="59" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="56"/>
+    </row>
+    <row r="60" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="56"/>
+    </row>
+    <row r="61" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="56"/>
+    </row>
+    <row r="62" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="56"/>
+    </row>
+    <row r="64" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="56"/>
+    </row>
+    <row r="65" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="56"/>
+    </row>
+    <row r="66" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="56"/>
+    </row>
+    <row r="67" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="56"/>
+    </row>
+    <row r="68" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="56"/>
+    </row>
+    <row r="69" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="56"/>
+    </row>
+    <row r="70" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="56"/>
+    </row>
+    <row r="71" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="56"/>
+    </row>
+    <row r="72" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="56"/>
+    </row>
+    <row r="73" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="56"/>
+    </row>
+    <row r="74" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="56"/>
+    </row>
+    <row r="75" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="56"/>
+    </row>
+    <row r="76" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="56"/>
+    </row>
+    <row r="77" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="56"/>
+    </row>
+    <row r="79" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="56"/>
+    </row>
+    <row r="80" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="56"/>
+    </row>
+    <row r="81" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="56"/>
+    </row>
+    <row r="83" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="56"/>
+    </row>
+    <row r="84" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="56"/>
+    </row>
+    <row r="86" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="56"/>
+    </row>
+    <row r="87" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="56"/>
+    </row>
+    <row r="88" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="56"/>
+    </row>
+    <row r="89" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="56"/>
+    </row>
+    <row r="90" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="56"/>
+    </row>
+    <row r="91" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="56"/>
+    </row>
+    <row r="92" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="56"/>
+    </row>
+    <row r="94" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="56"/>
+    </row>
+    <row r="95" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="56"/>
+    </row>
+    <row r="96" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="56"/>
+    </row>
+    <row r="97" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="56"/>
+    </row>
+    <row r="98" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="56"/>
+    </row>
+    <row r="101" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="56"/>
+    </row>
+    <row r="102" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="56"/>
+    </row>
+    <row r="103" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="56"/>
+    </row>
+    <row r="104" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="56"/>
+    </row>
+    <row r="105" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="56"/>
+    </row>
+    <row r="106" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="56"/>
+    </row>
+    <row r="107" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="56"/>
+    </row>
+    <row r="108" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="56"/>
+    </row>
+    <row r="109" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="56"/>
+    </row>
+    <row r="110" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="56"/>
+    </row>
+    <row r="111" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="56"/>
+    </row>
+    <row r="112" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="56"/>
+    </row>
+    <row r="113" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="56"/>
+    </row>
+    <row r="114" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="56"/>
+    </row>
+    <row r="115" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="56"/>
+    </row>
+    <row r="116" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="56"/>
+    </row>
+    <row r="117" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="56"/>
+    </row>
+    <row r="118" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="56"/>
+    </row>
+    <row r="119" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="56"/>
+    </row>
+    <row r="120" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="56"/>
+    </row>
+    <row r="121" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="56"/>
+    </row>
+    <row r="122" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="56"/>
+    </row>
+    <row r="123" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="56"/>
+    </row>
+    <row r="124" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="56"/>
+    </row>
+    <row r="125" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="56"/>
+    </row>
+    <row r="126" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="56"/>
+    </row>
+    <row r="127" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="56"/>
+    </row>
+    <row r="128" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="56"/>
+    </row>
+    <row r="129" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="56"/>
+    </row>
+    <row r="130" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="56"/>
+    </row>
+    <row r="131" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="56"/>
+    </row>
+    <row r="132" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="56"/>
+    </row>
+    <row r="133" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="56"/>
+    </row>
+    <row r="134" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="56"/>
+    </row>
+    <row r="135" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="56"/>
+    </row>
+    <row r="136" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="56"/>
+    </row>
+    <row r="137" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="56"/>
+    </row>
+    <row r="138" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="56"/>
+    </row>
+    <row r="139" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="56"/>
+    </row>
+    <row r="140" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="56"/>
+    </row>
+    <row r="141" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="56"/>
+    </row>
+    <row r="142" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="56"/>
+    </row>
+    <row r="143" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="56"/>
+    </row>
+    <row r="144" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="56"/>
+    </row>
+    <row r="145" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="56"/>
+    </row>
+    <row r="146" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="56"/>
+    </row>
+    <row r="147" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="56"/>
+    </row>
+    <row r="148" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="56"/>
+    </row>
+    <row r="149" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="56"/>
+    </row>
+    <row r="150" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="56"/>
+    </row>
+    <row r="151" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="56"/>
+    </row>
+    <row r="152" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="56"/>
+    </row>
+    <row r="153" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="56"/>
+    </row>
+    <row r="154" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="56"/>
+    </row>
+    <row r="155" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="56"/>
+    </row>
+    <row r="156" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="56"/>
+    </row>
+    <row r="157" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="56"/>
+    </row>
+    <row r="158" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="56"/>
+    </row>
+    <row r="159" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="56"/>
+    </row>
+    <row r="160" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="56"/>
+    </row>
+    <row r="161" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="56"/>
+    </row>
+    <row r="162" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="56"/>
+    </row>
+    <row r="163" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="56"/>
+    </row>
+    <row r="164" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="56"/>
+    </row>
+    <row r="165" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="56"/>
+    </row>
+    <row r="166" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="56"/>
+    </row>
+    <row r="167" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="56"/>
+    </row>
+    <row r="168" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="56"/>
+    </row>
+    <row r="169" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="56"/>
+    </row>
+    <row r="170" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="56"/>
+    </row>
+    <row r="171" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="56"/>
+    </row>
+    <row r="172" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="56"/>
+    </row>
+    <row r="173" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="56"/>
+    </row>
+    <row r="174" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="56"/>
+    </row>
+    <row r="175" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="56"/>
+    </row>
+    <row r="176" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="56"/>
+    </row>
+    <row r="177" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="56"/>
+    </row>
+    <row r="178" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="56"/>
+    </row>
+    <row r="179" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F179" s="56"/>
+    </row>
+    <row r="180" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="56"/>
+    </row>
+    <row r="181" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F181" s="56"/>
+    </row>
+    <row r="182" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F182" s="56"/>
+    </row>
+    <row r="183" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="56"/>
+    </row>
+    <row r="184" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F184" s="56"/>
+    </row>
+    <row r="185" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F185" s="56"/>
+    </row>
+    <row r="186" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="56"/>
+    </row>
+    <row r="187" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F187" s="56"/>
+    </row>
+    <row r="188" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="56"/>
+    </row>
+    <row r="189" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="56"/>
+    </row>
+    <row r="190" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F190" s="56"/>
+    </row>
+    <row r="191" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F191" s="56"/>
+    </row>
+    <row r="192" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="56"/>
+    </row>
+    <row r="193" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F193" s="56"/>
+    </row>
+    <row r="194" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F194" s="56"/>
+    </row>
+    <row r="195" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F195" s="56"/>
+    </row>
+    <row r="196" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F196" s="56"/>
+    </row>
+    <row r="197" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F197" s="56"/>
+    </row>
+    <row r="198" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F198" s="56"/>
+    </row>
+    <row r="199" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F199" s="56"/>
+    </row>
+    <row r="200" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F200" s="56"/>
+    </row>
+    <row r="201" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="56"/>
+    </row>
+    <row r="202" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F202" s="56"/>
+    </row>
+    <row r="203" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F203" s="56"/>
+    </row>
+    <row r="204" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F204" s="56"/>
+    </row>
+    <row r="205" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F205" s="56"/>
+    </row>
+    <row r="206" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F206" s="56"/>
+    </row>
+    <row r="207" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="56"/>
+    </row>
+    <row r="208" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F208" s="56"/>
+    </row>
+    <row r="209" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F209" s="56"/>
+    </row>
+    <row r="210" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F210" s="56"/>
+    </row>
+    <row r="211" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F211" s="56"/>
+    </row>
+    <row r="212" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F212" s="56"/>
+    </row>
+    <row r="213" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F213" s="56"/>
+    </row>
+    <row r="214" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F214" s="56"/>
+    </row>
+    <row r="215" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F215" s="56"/>
+    </row>
+    <row r="216" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F216" s="56"/>
+    </row>
+    <row r="217" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F217" s="56"/>
+    </row>
+    <row r="218" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F218" s="56"/>
+    </row>
+    <row r="219" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F219" s="56"/>
+    </row>
+    <row r="220" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F220" s="56"/>
+    </row>
+    <row r="221" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F221" s="56"/>
+    </row>
+    <row r="222" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F222" s="56"/>
+    </row>
+    <row r="223" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F223" s="56"/>
+    </row>
+    <row r="224" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F224" s="56"/>
+    </row>
+    <row r="225" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F225" s="56"/>
+    </row>
+    <row r="226" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F226" s="56"/>
+    </row>
+    <row r="227" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F227" s="56"/>
+    </row>
+    <row r="228" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F228" s="56"/>
+    </row>
+    <row r="229" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F229" s="56"/>
+    </row>
+    <row r="230" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F230" s="56"/>
+    </row>
+    <row r="231" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F231" s="56"/>
+    </row>
+    <row r="232" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F232" s="56"/>
+    </row>
+    <row r="233" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F233" s="56"/>
+    </row>
+    <row r="234" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F234" s="56"/>
+    </row>
+    <row r="235" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F235" s="56"/>
+    </row>
+    <row r="236" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F236" s="56"/>
+    </row>
+    <row r="237" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F237" s="56"/>
+    </row>
+    <row r="238" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F238" s="56"/>
+    </row>
+    <row r="239" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F239" s="56"/>
+    </row>
+    <row r="240" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F240" s="56"/>
+    </row>
+    <row r="241" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F241" s="56"/>
+    </row>
+    <row r="242" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F242" s="56"/>
+    </row>
+    <row r="243" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F243" s="56"/>
+    </row>
+    <row r="244" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F244" s="56"/>
+    </row>
+    <row r="245" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F245" s="56"/>
+    </row>
+    <row r="246" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F246" s="56"/>
+    </row>
+    <row r="247" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F247" s="56"/>
+    </row>
+    <row r="248" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F248" s="56"/>
+    </row>
+    <row r="249" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F249" s="56"/>
+    </row>
+    <row r="250" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F250" s="56"/>
+    </row>
+    <row r="251" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F251" s="56"/>
+    </row>
+    <row r="252" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F252" s="56"/>
+    </row>
+    <row r="253" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F253" s="56"/>
+    </row>
+    <row r="254" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F254" s="56"/>
+    </row>
+    <row r="255" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F255" s="56"/>
+    </row>
+    <row r="256" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F256" s="56"/>
+    </row>
+    <row r="257" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F257" s="56"/>
+    </row>
+    <row r="258" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F258" s="56"/>
+    </row>
+    <row r="259" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F259" s="56"/>
+    </row>
+    <row r="260" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F260" s="56"/>
+    </row>
+    <row r="261" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F261" s="56"/>
+    </row>
+    <row r="262" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F262" s="56"/>
+    </row>
+    <row r="263" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F263" s="56"/>
+    </row>
+    <row r="264" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F264" s="56"/>
+    </row>
+    <row r="265" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F265" s="56"/>
+    </row>
+    <row r="266" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F266" s="56"/>
+    </row>
+    <row r="267" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F267" s="56"/>
+    </row>
+    <row r="268" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F268" s="56"/>
+    </row>
+    <row r="269" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F269" s="56"/>
+    </row>
+    <row r="270" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F270" s="56"/>
+    </row>
+    <row r="271" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F271" s="56"/>
+    </row>
+    <row r="272" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F272" s="56"/>
+    </row>
+    <row r="273" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F273" s="56"/>
+    </row>
+    <row r="274" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F274" s="56"/>
+    </row>
+    <row r="275" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F275" s="56"/>
+    </row>
+    <row r="276" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F276" s="56"/>
+    </row>
+    <row r="277" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F277" s="56"/>
+    </row>
+    <row r="278" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F278" s="56"/>
+    </row>
+    <row r="279" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F279" s="56"/>
+    </row>
+    <row r="280" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F280" s="56"/>
+    </row>
+    <row r="281" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F281" s="56"/>
+    </row>
+    <row r="282" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F282" s="56"/>
+    </row>
+    <row r="283" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F283" s="56"/>
+    </row>
+    <row r="284" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F284" s="56"/>
+    </row>
+    <row r="285" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F285" s="56"/>
+    </row>
+    <row r="286" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F286" s="56"/>
+    </row>
+    <row r="287" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F287" s="56"/>
+    </row>
+    <row r="288" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F288" s="56"/>
+    </row>
+    <row r="289" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F289" s="56"/>
+    </row>
+    <row r="290" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F290" s="56"/>
+    </row>
+    <row r="291" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F291" s="56"/>
+    </row>
+    <row r="292" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F292" s="56"/>
+    </row>
+    <row r="293" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F293" s="56"/>
+    </row>
+    <row r="294" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F294" s="56"/>
+    </row>
+    <row r="295" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F295" s="56"/>
+    </row>
+    <row r="296" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F296" s="56"/>
+    </row>
+    <row r="297" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F297" s="56"/>
+    </row>
+    <row r="298" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F298" s="56"/>
+    </row>
+    <row r="299" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F299" s="56"/>
+    </row>
+    <row r="300" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F300" s="56"/>
+    </row>
+    <row r="301" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F301" s="56"/>
+    </row>
+    <row r="302" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F302" s="56"/>
+    </row>
+    <row r="303" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F303" s="56"/>
+    </row>
+    <row r="304" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F304" s="56"/>
+    </row>
+    <row r="305" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F305" s="56"/>
+    </row>
+    <row r="306" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F306" s="56"/>
+    </row>
+    <row r="307" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F307" s="56"/>
+    </row>
+    <row r="308" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F308" s="56"/>
+    </row>
+    <row r="309" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F309" s="56"/>
+    </row>
+    <row r="310" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F310" s="56"/>
+    </row>
+    <row r="311" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F311" s="56"/>
+    </row>
+    <row r="312" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F312" s="56"/>
+    </row>
+    <row r="313" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F313" s="56"/>
+    </row>
+    <row r="314" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F314" s="56"/>
+    </row>
+    <row r="315" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F315" s="56"/>
+    </row>
+    <row r="316" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F316" s="56"/>
+    </row>
+    <row r="317" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F317" s="56"/>
+    </row>
+    <row r="318" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F318" s="56"/>
+    </row>
+    <row r="319" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F319" s="56"/>
+    </row>
+    <row r="320" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F320" s="56"/>
+    </row>
+    <row r="321" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F321" s="56"/>
+    </row>
+    <row r="322" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F322" s="56"/>
+    </row>
+    <row r="323" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F323" s="56"/>
+    </row>
+    <row r="324" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F324" s="56"/>
+    </row>
+    <row r="325" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F325" s="56"/>
+    </row>
+    <row r="326" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F326" s="56"/>
+    </row>
+    <row r="327" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F327" s="56"/>
+    </row>
+    <row r="328" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F328" s="56"/>
+    </row>
+    <row r="329" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F329" s="56"/>
+    </row>
+    <row r="330" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F330" s="56"/>
+    </row>
+    <row r="331" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F331" s="56"/>
+    </row>
+    <row r="332" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F332" s="56"/>
+    </row>
+    <row r="333" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F333" s="56"/>
+    </row>
+    <row r="334" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F334" s="56"/>
+    </row>
+    <row r="335" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F335" s="56"/>
+    </row>
+    <row r="336" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F336" s="56"/>
+    </row>
+    <row r="337" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F337" s="56"/>
+    </row>
+    <row r="338" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F338" s="56"/>
+    </row>
+    <row r="339" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F339" s="56"/>
+    </row>
+    <row r="340" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F340" s="56"/>
+    </row>
+    <row r="341" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F341" s="56"/>
+    </row>
+    <row r="342" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F342" s="56"/>
+    </row>
+    <row r="343" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F343" s="56"/>
+    </row>
+    <row r="344" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F344" s="56"/>
+    </row>
+    <row r="345" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F345" s="56"/>
+    </row>
+    <row r="346" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F346" s="56"/>
+    </row>
+    <row r="347" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F347" s="56"/>
+    </row>
+    <row r="348" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F348" s="56"/>
+    </row>
+    <row r="349" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F349" s="56"/>
+    </row>
+    <row r="350" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F350" s="56"/>
+    </row>
+    <row r="351" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F351" s="56"/>
+    </row>
+    <row r="352" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F352" s="56"/>
+    </row>
+    <row r="353" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F353" s="56"/>
+    </row>
+    <row r="354" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F354" s="56"/>
+    </row>
+    <row r="355" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F355" s="56"/>
+    </row>
+    <row r="356" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F356" s="56"/>
+    </row>
+    <row r="357" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F357" s="56"/>
+    </row>
+    <row r="358" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F358" s="56"/>
+    </row>
+    <row r="359" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F359" s="56"/>
+    </row>
+    <row r="360" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F360" s="56"/>
+    </row>
+    <row r="361" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F361" s="56"/>
+    </row>
+    <row r="362" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F362" s="56"/>
+    </row>
+    <row r="363" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F363" s="56"/>
+    </row>
+    <row r="364" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F364" s="56"/>
+    </row>
+    <row r="365" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F365" s="56"/>
+    </row>
+    <row r="366" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F366" s="56"/>
+    </row>
+    <row r="367" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F367" s="56"/>
+    </row>
+    <row r="368" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F368" s="56"/>
+    </row>
+    <row r="369" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F369" s="56"/>
+    </row>
+    <row r="370" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F370" s="56"/>
+    </row>
+    <row r="371" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F371" s="56"/>
+    </row>
+    <row r="372" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F372" s="56"/>
+    </row>
+    <row r="373" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F373" s="56"/>
+    </row>
+    <row r="374" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F374" s="56"/>
+    </row>
+    <row r="375" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F375" s="56"/>
+    </row>
+    <row r="376" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F376" s="56"/>
+    </row>
+    <row r="377" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F377" s="56"/>
+    </row>
+    <row r="378" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F378" s="56"/>
+    </row>
+    <row r="379" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F379" s="56"/>
+    </row>
+    <row r="380" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F380" s="56"/>
+    </row>
+    <row r="381" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F381" s="56"/>
+    </row>
+    <row r="382" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F382" s="56"/>
+    </row>
+    <row r="383" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F383" s="56"/>
+    </row>
+    <row r="384" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F384" s="56"/>
+    </row>
+    <row r="385" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F385" s="56"/>
+    </row>
+    <row r="386" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F386" s="56"/>
+    </row>
+    <row r="387" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F387" s="56"/>
+    </row>
+    <row r="388" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F388" s="56"/>
+    </row>
+    <row r="389" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F389" s="56"/>
+    </row>
+    <row r="390" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F390" s="56"/>
+    </row>
+    <row r="391" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F391" s="56"/>
+    </row>
+    <row r="392" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F392" s="56"/>
+    </row>
+    <row r="393" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F393" s="56"/>
+    </row>
+    <row r="394" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F394" s="56"/>
+    </row>
+    <row r="395" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F395" s="56"/>
+    </row>
+    <row r="396" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F396" s="56"/>
+    </row>
+    <row r="397" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F397" s="56"/>
+    </row>
+    <row r="398" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F398" s="56"/>
+    </row>
+    <row r="399" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F399" s="56"/>
+    </row>
+    <row r="400" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F400" s="56"/>
+    </row>
+    <row r="401" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F401" s="56"/>
+    </row>
+    <row r="402" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F402" s="56"/>
+    </row>
+    <row r="403" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F403" s="56"/>
+    </row>
+    <row r="404" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F404" s="56"/>
+    </row>
+    <row r="405" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F405" s="56"/>
+    </row>
+    <row r="406" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F406" s="56"/>
+    </row>
+    <row r="407" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F407" s="56"/>
+    </row>
+    <row r="408" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F408" s="56"/>
+    </row>
+    <row r="409" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F409" s="56"/>
+    </row>
+    <row r="410" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F410" s="56"/>
+    </row>
+    <row r="411" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F411" s="56"/>
+    </row>
+    <row r="412" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F412" s="56"/>
+    </row>
+    <row r="413" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F413" s="56"/>
+    </row>
+    <row r="414" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F414" s="56"/>
+    </row>
+    <row r="415" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F415" s="56"/>
+    </row>
+    <row r="416" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F416" s="56"/>
+    </row>
+    <row r="417" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F417" s="56"/>
+    </row>
+    <row r="418" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F418" s="56"/>
+    </row>
+    <row r="419" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F419" s="56"/>
+    </row>
+    <row r="420" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F420" s="56"/>
+    </row>
+    <row r="421" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F421" s="56"/>
+    </row>
+    <row r="422" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F422" s="56"/>
+    </row>
+    <row r="423" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F423" s="56"/>
+    </row>
+    <row r="424" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F424" s="56"/>
+    </row>
+    <row r="425" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F425" s="56"/>
+    </row>
+    <row r="426" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F426" s="56"/>
+    </row>
+    <row r="427" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F427" s="56"/>
+    </row>
+    <row r="428" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F428" s="56"/>
+    </row>
+    <row r="429" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F429" s="56"/>
+    </row>
+    <row r="430" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F430" s="56"/>
+    </row>
+    <row r="431" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F431" s="56"/>
+    </row>
+    <row r="432" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F432" s="56"/>
+    </row>
+    <row r="433" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F433" s="56"/>
+    </row>
+    <row r="434" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F434" s="56"/>
+    </row>
+    <row r="435" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F435" s="56"/>
+    </row>
+    <row r="436" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F436" s="56"/>
+    </row>
+    <row r="437" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F437" s="56"/>
+    </row>
+    <row r="438" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F438" s="56"/>
+    </row>
+    <row r="439" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F439" s="56"/>
+    </row>
+    <row r="440" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F440" s="56"/>
+    </row>
+    <row r="441" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F441" s="56"/>
+    </row>
+    <row r="442" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F442" s="56"/>
+    </row>
+    <row r="443" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F443" s="56"/>
+    </row>
+    <row r="444" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F444" s="56"/>
+    </row>
+    <row r="445" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F445" s="56"/>
+    </row>
+    <row r="446" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F446" s="56"/>
+    </row>
+    <row r="447" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F447" s="56"/>
+    </row>
+    <row r="448" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F448" s="56"/>
+    </row>
+    <row r="449" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F449" s="56"/>
+    </row>
+    <row r="450" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F450" s="56"/>
+    </row>
+    <row r="451" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F451" s="56"/>
+    </row>
+    <row r="452" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F452" s="56"/>
+    </row>
+    <row r="453" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F453" s="56"/>
+    </row>
+    <row r="454" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F454" s="56"/>
+    </row>
+    <row r="455" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F455" s="56"/>
+    </row>
+    <row r="456" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F456" s="56"/>
+    </row>
+    <row r="457" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F457" s="56"/>
+    </row>
+    <row r="458" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F458" s="56"/>
+    </row>
+    <row r="459" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F459" s="56"/>
+    </row>
+    <row r="460" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F460" s="56"/>
+    </row>
+    <row r="461" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F461" s="56"/>
+    </row>
+    <row r="462" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F462" s="56"/>
+    </row>
+    <row r="463" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F463" s="56"/>
+    </row>
+    <row r="464" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F464" s="56"/>
+    </row>
+    <row r="465" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F465" s="56"/>
+    </row>
+    <row r="466" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F466" s="56"/>
+    </row>
+    <row r="467" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F467" s="56"/>
+    </row>
+    <row r="468" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F468" s="56"/>
+    </row>
+    <row r="469" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F469" s="56"/>
+    </row>
+    <row r="470" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F470" s="56"/>
+    </row>
+    <row r="471" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F471" s="56"/>
+    </row>
+    <row r="472" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F472" s="56"/>
+    </row>
+    <row r="473" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F473" s="56"/>
+    </row>
+    <row r="474" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F474" s="56"/>
+    </row>
+    <row r="475" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F475" s="56"/>
+    </row>
+    <row r="476" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F476" s="56"/>
+    </row>
+    <row r="477" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F477" s="56"/>
+    </row>
+    <row r="478" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F478" s="56"/>
+    </row>
+    <row r="479" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F479" s="56"/>
+    </row>
+    <row r="480" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F480" s="56"/>
+    </row>
+    <row r="481" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F481" s="56"/>
+    </row>
+    <row r="482" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F482" s="56"/>
+    </row>
+    <row r="483" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F483" s="56"/>
+    </row>
+    <row r="484" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F484" s="56"/>
+    </row>
+    <row r="485" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F485" s="56"/>
+    </row>
+    <row r="486" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F486" s="56"/>
+    </row>
+    <row r="487" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F487" s="56"/>
+    </row>
+    <row r="488" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F488" s="56"/>
+    </row>
+    <row r="489" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F489" s="56"/>
+    </row>
+    <row r="490" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F490" s="56"/>
+    </row>
+    <row r="491" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F491" s="56"/>
+    </row>
+    <row r="492" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F492" s="56"/>
+    </row>
+    <row r="493" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F493" s="56"/>
+    </row>
+    <row r="494" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F494" s="56"/>
+    </row>
+    <row r="495" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F495" s="56"/>
+    </row>
+    <row r="496" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F496" s="56"/>
+    </row>
+    <row r="497" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F497" s="56"/>
+    </row>
+    <row r="498" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F498" s="56"/>
+    </row>
+    <row r="499" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F499" s="56"/>
+    </row>
+    <row r="500" spans="6:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F500" s="56"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
